--- a/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/resource/pageobject/Object.xlsx
+++ b/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/resource/pageobject/Object.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henry\git\automation\Desktop\appium\backup\PractitionerPortal_automation\appiumtest\Implement\PageObject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henry\git\automation\Desktop\appium\backup\PractitionerPortal_automation\appiumtest\resource\pageobject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="10170" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="10170" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="AndroidObject" sheetId="1" r:id="rId1"/>
@@ -809,8 +809,11 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>//android.view.View[contains(@content-desc,"</t>
+    <t>立即支付</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -820,25 +823,57 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>应付总金额</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>")]/..//android.view.View</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>立即支付</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
+      <t>微信支付</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付方式</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>(//android.widget.CheckedTextView)[2]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码输入框</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.RelativeLayout[@resource-id='com.tencent.mm:id/cj0']/android.widget.RelativeLayout</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消支付</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成支付</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付成功信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付未完成信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.Image[@content-desc="clock"]/following-sibling::android.view.View</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@content-desc="搜索"]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.mm:id/hx</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.widget.TextView[@text='</t>
     </r>
     <r>
       <rPr>
@@ -848,57 +883,45 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>微信支付</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付方式</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>(//android.widget.CheckedTextView)[2]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码输入框</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.RelativeLayout[@resource-id='com.tencent.mm:id/cj0']/android.widget.RelativeLayout</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消支付</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成支付</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付成功信息</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付未完成信息</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.Image[@content-desc="clock"]/following-sibling::android.view.View</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.TextView[@content-desc="搜索"]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.tencent.mm:id/hx</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//android.widget.TextView[@text='</t>
+      <t>线上工作室</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>']</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[contains(@name,"您已成功支付")]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.mm:id/cix</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.mm:id/dr3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.Image[@content-desc="tick-coin"]/following-sibling::android.view.View</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[contains(@name,"购货卡号")]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[contains(@content-desc,"</t>
     </r>
     <r>
       <rPr>
@@ -908,7 +931,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>线上工作室</t>
+      <t>应付总金额</t>
     </r>
     <r>
       <rPr>
@@ -917,31 +940,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>']</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>//XCUIElementTypeStaticText[contains(@name,"您已成功支付")]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.tencent.mm:id/cix</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.tencent.mm:id/dr3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.Image[@content-desc="tick-coin"]/following-sibling::android.view.View</t>
-  </si>
-  <si>
-    <t>//XCUIElementTypeStaticText[contains(@name,"购货卡号")]</t>
+      <t>")]/following-sibling::android.view.View</t>
+    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1607,8 +1607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV32"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -1650,7 +1650,7 @@
         <v>91</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>94</v>
@@ -1662,7 +1662,7 @@
         <v>93</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -1687,7 +1687,7 @@
         <v>113</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>114</v>
@@ -1914,8 +1914,8 @@
       <c r="B24" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="18" t="s">
-        <v>137</v>
+      <c r="C24" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>94</v>
@@ -1923,10 +1923,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>98</v>
@@ -1934,10 +1934,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>98</v>
@@ -1945,10 +1945,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>94</v>
@@ -1956,10 +1956,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>116</v>
@@ -1967,32 +1967,32 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B29" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B30" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B31" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>94</v>
@@ -2000,10 +2000,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B32" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>124</v>
@@ -2024,7 +2024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -2364,7 +2364,7 @@
         <v>59</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>7</v>
@@ -2605,7 +2605,7 @@
         <v>110</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>7</v>

--- a/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/resource/pageobject/Object.xlsx
+++ b/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/resource/pageobject/Object.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="10170" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="10170" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AndroidObject" sheetId="1" r:id="rId1"/>
@@ -167,12 +167,6 @@
     <t>确定</t>
   </si>
   <si>
-    <t>//XCUIElementTypeOther[1]/XCUIElementTypeTextField</t>
-  </si>
-  <si>
-    <t>//XCUIElementTypeOther[2]/XCUIElementTypeTextField</t>
-  </si>
-  <si>
     <t>应付总金额</t>
   </si>
   <si>
@@ -942,6 +936,14 @@
       </rPr>
       <t>")]/following-sibling::android.view.View</t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@name="输入手机号码"]/../following-sibling:: XCUIElementTypeTextField</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@name="确认手机号码"]/../following-sibling:: XCUIElementTypeTextField</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1607,7 +1609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
@@ -1644,25 +1646,25 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="31"/>
       <c r="B4" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -1670,10 +1672,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -1681,75 +1683,75 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="20"/>
       <c r="B7" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="21"/>
       <c r="B8" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="23"/>
       <c r="B10" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>92</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="21"/>
       <c r="B11" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>5</v>
@@ -1758,24 +1760,24 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="26"/>
       <c r="B12" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>5</v>
@@ -1784,229 +1786,229 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="18" t="s">
         <v>122</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="20"/>
       <c r="B16" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="20"/>
       <c r="B17" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="20"/>
       <c r="B18" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="21"/>
       <c r="B19" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="20"/>
       <c r="B21" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="B22" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>133</v>
-      </c>
       <c r="D22" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="21"/>
       <c r="B23" s="17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" s="24" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" s="17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B29" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B30" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B31" s="17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B32" s="17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2024,15 +2026,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.375" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="89.875" customWidth="1"/>
+    <col min="3" max="3" width="108.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2060,10 +2062,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -2075,7 +2077,7 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="38"/>
       <c r="B4" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>8</v>
@@ -2090,15 +2092,15 @@
         <v>10</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>12</v>
@@ -2128,7 +2130,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>15</v>
@@ -2149,10 +2151,10 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="40"/>
       <c r="B10" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>15</v>
@@ -2213,10 +2215,10 @@
         <v>27</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>7</v>
@@ -2227,8 +2229,8 @@
       <c r="B16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>33</v>
+      <c r="C16" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>7</v>
@@ -2239,8 +2241,8 @@
       <c r="B17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>34</v>
+      <c r="C17" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>7</v>
@@ -2264,7 +2266,7 @@
         <v>30</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>15</v>
@@ -2273,10 +2275,10 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="35"/>
       <c r="B20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>7</v>
@@ -2285,10 +2287,10 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="36"/>
       <c r="B21" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>7</v>
@@ -2296,13 +2298,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="C22" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>7</v>
@@ -2310,13 +2312,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>15</v>
@@ -2325,10 +2327,10 @@
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="33"/>
       <c r="B24" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>15</v>
@@ -2337,10 +2339,10 @@
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="33"/>
       <c r="B25" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>15</v>
@@ -2349,10 +2351,10 @@
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="33"/>
       <c r="B26" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>7</v>
@@ -2361,10 +2363,10 @@
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="33"/>
       <c r="B27" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>7</v>
@@ -2373,10 +2375,10 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="33"/>
       <c r="B28" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>7</v>
@@ -2385,10 +2387,10 @@
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="33"/>
       <c r="B29" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>7</v>
@@ -2397,10 +2399,10 @@
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="33"/>
       <c r="B30" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>7</v>
@@ -2409,10 +2411,10 @@
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="33"/>
       <c r="B31" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>15</v>
@@ -2421,10 +2423,10 @@
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>15</v>
@@ -2433,10 +2435,10 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
       <c r="B33" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>7</v>
@@ -2445,10 +2447,10 @@
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
       <c r="B34" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>15</v>
@@ -2457,10 +2459,10 @@
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
       <c r="B35" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>15</v>
@@ -2469,10 +2471,10 @@
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
       <c r="B36" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>15</v>
@@ -2481,10 +2483,10 @@
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
       <c r="B37" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>7</v>
@@ -2493,10 +2495,10 @@
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
       <c r="B38" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>78</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>7</v>
@@ -2505,10 +2507,10 @@
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
       <c r="B39" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>15</v>
@@ -2517,10 +2519,10 @@
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
       <c r="B40" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>15</v>
@@ -2528,13 +2530,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>15</v>
@@ -2543,10 +2545,10 @@
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
       <c r="B42" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>15</v>
@@ -2555,10 +2557,10 @@
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
       <c r="B43" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>15</v>
@@ -2567,10 +2569,10 @@
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
       <c r="B44" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D44" s="11" t="s">
         <v>7</v>
@@ -2579,10 +2581,10 @@
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
       <c r="B45" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>15</v>
@@ -2591,10 +2593,10 @@
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="16"/>
       <c r="B46" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>7</v>
@@ -2602,10 +2604,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>7</v>

--- a/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/resource/pageobject/Object.xlsx
+++ b/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/resource/pageobject/Object.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henry\git\automation\Desktop\appium\backup\PractitionerPortal_automation\appiumtest\resource\pageobject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shared\新建文件夹\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -270,10 +270,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>//XCUIElementTypeStaticText[@name="商品总数（件）"]/../..//XCUIElementTypeStaticText</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>//XCUIElementTypeStaticText[@name="小计（元）:"]/../..//XCUIElementTypeStaticText</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -944,6 +940,10 @@
   </si>
   <si>
     <t>//XCUIElementTypeStaticText[@name="确认手机号码"]/../following-sibling:: XCUIElementTypeTextField</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[contains(@name,"商品总数")]/../preceding-sibling:: XCUIElementTypeOther/XCUIElementTypeStaticText</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1646,25 +1646,25 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="31"/>
       <c r="B4" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -1672,10 +1672,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>109</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>110</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -1683,75 +1683,75 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>111</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="20"/>
       <c r="B7" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C7" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>113</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="21"/>
       <c r="B8" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>98</v>
-      </c>
       <c r="C9" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="23"/>
       <c r="B10" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="21"/>
       <c r="B11" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>5</v>
@@ -1760,24 +1760,24 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="26"/>
       <c r="B12" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B13" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>100</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>101</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>5</v>
@@ -1786,13 +1786,13 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="D14" s="18" t="s">
         <v>121</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1803,10 +1803,10 @@
         <v>45</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1815,51 +1815,51 @@
         <v>48</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="20"/>
       <c r="B17" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="D17" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="20"/>
       <c r="B18" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="21"/>
       <c r="B19" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="C19" s="18" t="s">
-        <v>127</v>
-      </c>
       <c r="D19" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>46</v>
@@ -1868,147 +1868,147 @@
         <v>46</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="20"/>
       <c r="B21" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="C22" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="C22" s="18" t="s">
-        <v>131</v>
-      </c>
       <c r="D22" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="21"/>
       <c r="B23" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="C23" s="17" t="s">
-        <v>133</v>
-      </c>
       <c r="D23" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="D27" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="D28" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B29" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B30" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B31" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B32" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="D32" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2026,15 +2026,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.375" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="108.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="139.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2100,7 +2100,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>12</v>
@@ -2230,7 +2230,7 @@
         <v>28</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>7</v>
@@ -2242,7 +2242,7 @@
         <v>29</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>7</v>
@@ -2366,7 +2366,7 @@
         <v>57</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>7</v>
@@ -2378,7 +2378,7 @@
         <v>58</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>59</v>
+        <v>157</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>7</v>
@@ -2387,10 +2387,10 @@
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="33"/>
       <c r="B29" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>7</v>
@@ -2399,10 +2399,10 @@
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="33"/>
       <c r="B30" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>62</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>63</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>7</v>
@@ -2411,10 +2411,10 @@
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="33"/>
       <c r="B31" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="12" t="s">
         <v>64</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>65</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>15</v>
@@ -2423,10 +2423,10 @@
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>15</v>
@@ -2435,10 +2435,10 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
       <c r="B33" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>7</v>
@@ -2447,10 +2447,10 @@
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
       <c r="B34" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>15</v>
@@ -2459,10 +2459,10 @@
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
       <c r="B35" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>15</v>
@@ -2471,10 +2471,10 @@
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
       <c r="B36" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>15</v>
@@ -2483,10 +2483,10 @@
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
       <c r="B37" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>7</v>
@@ -2495,10 +2495,10 @@
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
       <c r="B38" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>7</v>
@@ -2507,10 +2507,10 @@
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
       <c r="B39" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>15</v>
@@ -2519,10 +2519,10 @@
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
       <c r="B40" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>15</v>
@@ -2530,13 +2530,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>15</v>
@@ -2545,10 +2545,10 @@
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
       <c r="B42" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>15</v>
@@ -2557,10 +2557,10 @@
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
       <c r="B43" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>15</v>
@@ -2569,10 +2569,10 @@
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
       <c r="B44" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D44" s="11" t="s">
         <v>7</v>
@@ -2581,10 +2581,10 @@
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
       <c r="B45" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="9" t="s">
         <v>85</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>86</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>15</v>
@@ -2593,10 +2593,10 @@
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="16"/>
       <c r="B46" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>7</v>
@@ -2604,10 +2604,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>7</v>

--- a/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/resource/pageobject/Object.xlsx
+++ b/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/resource/pageobject/Object.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shared\新建文件夹\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henry\git\automation\Desktop\appium\backup\PractitionerPortal_automation\appiumtest\resource\pageobject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="10170" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="10170" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="AndroidObject" sheetId="1" r:id="rId1"/>
@@ -802,8 +802,52 @@
     <t>立即支付</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"> </t>
+    <t>支付方式</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>(//android.widget.CheckedTextView)[2]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码输入框</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.RelativeLayout[@resource-id='com.tencent.mm:id/cj0']/android.widget.RelativeLayout</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消支付</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成支付</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付成功信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付未完成信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.Image[@content-desc="clock"]/following-sibling::android.view.View</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@content-desc="搜索"]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.mm:id/hx</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.widget.TextView[@text='</t>
     </r>
     <r>
       <rPr>
@@ -813,57 +857,45 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>微信支付</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付方式</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>(//android.widget.CheckedTextView)[2]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码输入框</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.RelativeLayout[@resource-id='com.tencent.mm:id/cj0']/android.widget.RelativeLayout</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消支付</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成支付</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付成功信息</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付未完成信息</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.Image[@content-desc="clock"]/following-sibling::android.view.View</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.TextView[@content-desc="搜索"]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.tencent.mm:id/hx</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//android.widget.TextView[@text='</t>
+      <t>线上工作室</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>']</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[contains(@name,"您已成功支付")]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.mm:id/cix</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.mm:id/dr3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.Image[@content-desc="tick-coin"]/following-sibling::android.view.View</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[contains(@name,"购货卡号")]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[contains(@content-desc,"</t>
     </r>
     <r>
       <rPr>
@@ -873,7 +905,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>线上工作室</t>
+      <t>应付总金额</t>
     </r>
     <r>
       <rPr>
@@ -882,54 +914,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>']</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>//XCUIElementTypeStaticText[contains(@name,"您已成功支付")]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.tencent.mm:id/cix</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.tencent.mm:id/dr3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.Image[@content-desc="tick-coin"]/following-sibling::android.view.View</t>
-  </si>
-  <si>
-    <t>//XCUIElementTypeStaticText[contains(@name,"购货卡号")]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//android.view.View[contains(@content-desc,"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>应付总金额</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>")]/following-sibling::android.view.View</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -944,6 +928,10 @@
   </si>
   <si>
     <t>//XCUIElementTypeStaticText[contains(@name,"商品总数")]/../preceding-sibling:: XCUIElementTypeOther/XCUIElementTypeStaticText</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信支付</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1199,7 +1187,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1277,6 +1265,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1609,8 +1600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV32"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -1623,12 +1614,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -1645,26 +1636,26 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="31" t="s">
         <v>88</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>88</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="17" t="s">
         <v>90</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -1689,7 +1680,7 @@
         <v>110</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>111</v>
@@ -1917,7 +1908,7 @@
         <v>60</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>91</v>
@@ -1935,11 +1926,11 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>135</v>
+      <c r="B26" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>157</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>95</v>
@@ -1947,10 +1938,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>91</v>
@@ -1958,10 +1949,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>113</v>
@@ -1969,32 +1960,32 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B29" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B30" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B31" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>91</v>
@@ -2002,10 +1993,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B32" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>121</v>
@@ -2026,7 +2017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -2039,12 +2030,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -2061,7 +2052,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="38" t="s">
         <v>39</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2075,7 +2066,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="4" t="s">
         <v>44</v>
       </c>
@@ -2087,7 +2078,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
@@ -2099,7 +2090,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="40" t="s">
         <v>96</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -2113,7 +2104,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
@@ -2125,7 +2116,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
@@ -2137,7 +2128,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
@@ -2149,7 +2140,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="4" t="s">
         <v>56</v>
       </c>
@@ -2161,7 +2152,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
@@ -2173,7 +2164,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="43" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -2187,7 +2178,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="6" t="s">
         <v>24</v>
       </c>
@@ -2199,7 +2190,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="4" t="s">
         <v>26</v>
       </c>
@@ -2211,7 +2202,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="35" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -2225,31 +2216,31 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="6" t="s">
         <v>31</v>
       </c>
@@ -2261,7 +2252,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="4" t="s">
         <v>30</v>
       </c>
@@ -2273,7 +2264,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
+      <c r="A20" s="36"/>
       <c r="B20" s="4" t="s">
         <v>33</v>
       </c>
@@ -2285,7 +2276,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
+      <c r="A21" s="37"/>
       <c r="B21" s="7" t="s">
         <v>36</v>
       </c>
@@ -2311,7 +2302,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="33" t="s">
         <v>47</v>
       </c>
       <c r="B23" s="9" t="s">
@@ -2325,7 +2316,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="9" t="s">
         <v>48</v>
       </c>
@@ -2337,7 +2328,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="9" t="s">
         <v>46</v>
       </c>
@@ -2349,7 +2340,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="9" t="s">
         <v>54</v>
       </c>
@@ -2361,31 +2352,31 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
+      <c r="A27" s="34"/>
       <c r="B27" s="9" t="s">
         <v>57</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
+      <c r="A28" s="34"/>
       <c r="B28" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
+      <c r="A29" s="34"/>
       <c r="B29" s="9" t="s">
         <v>60</v>
       </c>
@@ -2397,7 +2388,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
+      <c r="A30" s="34"/>
       <c r="B30" s="9" t="s">
         <v>61</v>
       </c>
@@ -2409,7 +2400,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
+      <c r="A31" s="34"/>
       <c r="B31" s="12" t="s">
         <v>63</v>
       </c>
@@ -2607,7 +2598,7 @@
         <v>107</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>7</v>

--- a/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/resource/pageobject/Object.xlsx
+++ b/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/resource/pageobject/Object.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="208">
   <si>
     <r>
       <rPr>
@@ -516,9 +516,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>商品总数</t>
-  </si>
-  <si>
     <t>去支付</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -532,10 +529,6 @@
   </si>
   <si>
     <t>公众号链接</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.tencent.mm:id/l7</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -677,8 +670,12 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>//android.view.View[contains(@content-desc,"</t>
+    <t>金额小计</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[contains(@content-desc, "</t>
     </r>
     <r>
       <rPr>
@@ -688,7 +685,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>商品总数</t>
+      <t>小计</t>
     </r>
     <r>
       <rPr>
@@ -697,17 +694,25 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>")]/preceding-sibling::android.view.View</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>金额小计</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//android.view.View[contains(@content-desc, "</t>
+      <t>")]</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单总金额</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.widget.Button[@content-desc="</t>
     </r>
     <r>
       <rPr>
@@ -717,7 +722,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>小计</t>
+      <t>去支付</t>
     </r>
     <r>
       <rPr>
@@ -726,25 +731,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>")]</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单总金额</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//android.widget.Button[@content-desc="</t>
+      <t>"]/../preceding-sibling::android.view.View[contains(@content-desc,"</t>
     </r>
     <r>
       <rPr>
@@ -754,7 +741,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>去支付</t>
+      <t>订单金额</t>
     </r>
     <r>
       <rPr>
@@ -763,7 +750,64 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>"]/../preceding-sibling::android.view.View[contains(@content-desc,"</t>
+      <t>")]</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交成功</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.view.View[contains(@content-desc,"提交成功")]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即支付</t>
+  </si>
+  <si>
+    <t>支付方式</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>(//android.widget.CheckedTextView)[2]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码输入框</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消支付</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成支付</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付成功信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付未完成信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.Image[@content-desc="clock"]/following-sibling::android.view.View</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@content-desc="搜索"]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.widget.TextView[@text='</t>
     </r>
     <r>
       <rPr>
@@ -773,7 +817,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>订单金额</t>
+      <t>线上工作室</t>
     </r>
     <r>
       <rPr>
@@ -782,72 +826,28 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>")]</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交成功</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.view.View[contains(@content-desc,"提交成功")]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>立即支付</t>
-  </si>
-  <si>
-    <t>支付方式</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>(//android.widget.CheckedTextView)[2]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码输入框</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.RelativeLayout[@resource-id='com.tencent.mm:id/cj0']/android.widget.RelativeLayout</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消支付</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成支付</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付成功信息</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付未完成信息</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.Image[@content-desc="clock"]/following-sibling::android.view.View</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.TextView[@content-desc="搜索"]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.tencent.mm:id/hx</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//android.widget.TextView[@text='</t>
+      <t>']</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[contains(@name,"您已成功支付")]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.Image[@content-desc="tick-coin"]/following-sibling::android.view.View</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[contains(@name,"购货卡号")]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[contains(@content-desc,"</t>
     </r>
     <r>
       <rPr>
@@ -857,7 +857,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>线上工作室</t>
+      <t>应付总金额</t>
     </r>
     <r>
       <rPr>
@@ -866,31 +866,68 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>']</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>//XCUIElementTypeStaticText[contains(@name,"您已成功支付")]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.tencent.mm:id/cix</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.tencent.mm:id/dr3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.Image[@content-desc="tick-coin"]/following-sibling::android.view.View</t>
-  </si>
-  <si>
-    <t>//XCUIElementTypeStaticText[contains(@name,"购货卡号")]</t>
+      <t>")]/following-sibling::android.view.View</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@name="输入手机号码"]/../following-sibling:: XCUIElementTypeTextField</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@name="确认手机号码"]/../following-sibling:: XCUIElementTypeTextField</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[contains(@name,"商品总数")]/../preceding-sibling:: XCUIElementTypeOther/XCUIElementTypeStaticText</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信支付</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.mm:id/hz</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.mm:id/lp</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.RelativeLayout[@resource-id='com.tencent.mm:id/bri']/android.widget.RelativeLayout</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.mm:id/co1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.mm:id/dxg</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>(//android.view.View[@content-desc="*"])[1]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择常用购货人</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用购货人</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABOCode</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -899,13 +936,91 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
+        <sz val="9"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>应付总金额</t>
+      <t>您当前可用悦享分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>")]</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>workaround2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.view.View[contains(@content-desc,"当前购货人")]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前购货人1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.Button[contains(@content-desc,'m')]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc='t ']</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.widget.RadioButton[contains(@content-desc,"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>梅博众</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>")]</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅博众</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>总额</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[contains(@content-desc,"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总额</t>
     </r>
     <r>
       <rPr>
@@ -914,24 +1029,459 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>")]/following-sibling::android.view.View</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>//XCUIElementTypeStaticText[@name="输入手机号码"]/../following-sibling:: XCUIElementTypeTextField</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>//XCUIElementTypeStaticText[@name="确认手机号码"]/../following-sibling:: XCUIElementTypeTextField</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>//XCUIElementTypeStaticText[contains(@name,"商品总数")]/../preceding-sibling:: XCUIElementTypeOther/XCUIElementTypeStaticText</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信支付</t>
+      <t>")]</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[@content-desc="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>婴儿沐浴露</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"]/../following-sibling::android.view.View//android.widget.EditText[@resource-id='quantity_']</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>婴儿沐浴露数量</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>净营业额</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[contains(@content-desc,"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>净营业额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>")]/preceding-sibling::android.view.View</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[@content-desc="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>销售指数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"]/preceding-sibling::android.view.View</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售指数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.Button[@content-desc="去支付"]/../preceding-sibling::android.view.View</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>多个验证</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存为常用购货人</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>多笔支付</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>本次支付金额</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>paymentAmount4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看详情</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.view.View[contains(@content-desc,"查看详情")]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>已支付金额</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[@content-desc="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已支付金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"]/following-sibling::android.view.View</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余应付</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[@content-desc="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>剩余应付</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"]/following-sibling::android.view.View</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[contains(@content-desc,"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订单操作人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>")]</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单操作人</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[contains(@content-desc,"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>购货渠道</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>")]</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>购货渠道</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[contains(@content-desc,"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订单状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>")]</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单状态</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[contains(@content-desc,"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多笔支付</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>")]</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(//android.widget.Button[@content-desc="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重新购买</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"])[2]/preceding-sibling::android.view.View</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[contains(@content-desc,"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>购货总额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>")]</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(//android.view.View[contains(@content-desc,"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>购货总额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>")]/following-sibling::android.view.View[contains(@content-desc,"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运费</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>")])[1]</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[contains(@content-desc,"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>购货总额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>")]/following-sibling::android.view.View[contains(@content-desc,"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>扣减悦享分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>")]</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>运费</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>多笔支付</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>多种金额</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>去结算</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1018,7 +1568,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1043,8 +1593,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1181,13 +1737,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFE9E9E9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1269,6 +1834,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1598,28 +2175,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV32"/>
+  <dimension ref="A1:IV58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="121.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.125" style="1" customWidth="1"/>
     <col min="5" max="256" width="10.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -1636,26 +2213,26 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="35" t="s">
         <v>88</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>88</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="32"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>145</v>
+      <c r="C4" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -1663,10 +2240,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -1677,13 +2254,13 @@
         <v>92</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1692,10 +2269,10 @@
         <v>93</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1704,7 +2281,7 @@
         <v>94</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>95</v>
@@ -1718,7 +2295,7 @@
         <v>97</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>95</v>
@@ -1730,7 +2307,7 @@
         <v>89</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>91</v>
@@ -1739,7 +2316,7 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="21"/>
       <c r="B11" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>98</v>
@@ -1750,256 +2327,560 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="26"/>
-      <c r="B12" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="B12" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="26"/>
+      <c r="B13" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="26"/>
+      <c r="B14" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="26"/>
+      <c r="B15" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="26"/>
+      <c r="B16" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="20"/>
-      <c r="B16" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>121</v>
-      </c>
-    </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="20"/>
-      <c r="B17" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>123</v>
+      <c r="A17" s="26"/>
+      <c r="B17" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>168</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="20"/>
-      <c r="B18" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>124</v>
+      <c r="A18" s="26"/>
+      <c r="B18" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>162</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
-      <c r="B19" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="D19" s="18" t="s">
+      <c r="A19" s="26"/>
+      <c r="B19" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="26"/>
+      <c r="B20" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" s="18" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="20"/>
-      <c r="B21" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>105</v>
+      <c r="A21" s="23"/>
+      <c r="B21" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>116</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
-        <v>128</v>
+      <c r="A22" s="28" t="s">
+        <v>103</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>113</v>
+        <v>100</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="21"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>132</v>
+        <v>117</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="D23" s="18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="20"/>
+      <c r="B25" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="20"/>
+      <c r="B26" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>95</v>
+      <c r="D26" s="18" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="17" t="s">
-        <v>135</v>
+      <c r="A27" s="20"/>
+      <c r="B27" s="27" t="s">
+        <v>174</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B28" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>138</v>
+      <c r="A28" s="21"/>
+      <c r="B28" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>123</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B29" s="17" t="s">
-        <v>139</v>
+      <c r="A29" s="21"/>
+      <c r="B29" s="9" t="s">
+        <v>175</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>149</v>
+        <v>176</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B30" s="17" t="s">
-        <v>140</v>
+      <c r="A30" s="21"/>
+      <c r="B30" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>149</v>
+        <v>177</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B31" s="17" t="s">
-        <v>141</v>
+      <c r="A31" s="20"/>
+      <c r="B31" s="27" t="s">
+        <v>69</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B32" s="17" t="s">
-        <v>142</v>
+      <c r="A32" s="20"/>
+      <c r="B32" s="27" t="s">
+        <v>204</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="20"/>
+      <c r="B33" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="21"/>
+      <c r="B34" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="20"/>
+      <c r="B36" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="20"/>
+      <c r="B37" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="21"/>
+      <c r="B39" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="20"/>
+      <c r="B41" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="20"/>
+      <c r="B42" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B43" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B44" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B45" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B46" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B47" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B48" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D32" s="18" t="s">
-        <v>121</v>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B49" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B50" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B51" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B52" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B53" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B54" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B55" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B56" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B57" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B58" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2017,8 +2898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2030,12 +2911,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -2052,7 +2933,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="42" t="s">
         <v>39</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2066,7 +2947,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="4" t="s">
         <v>44</v>
       </c>
@@ -2078,7 +2959,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
@@ -2090,7 +2971,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="44" t="s">
         <v>96</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -2104,7 +2985,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
@@ -2116,7 +2997,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
@@ -2128,7 +3009,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
@@ -2140,7 +3021,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="4" t="s">
         <v>56</v>
       </c>
@@ -2152,7 +3033,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
@@ -2164,7 +3045,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="47" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -2178,7 +3059,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="6" t="s">
         <v>24</v>
       </c>
@@ -2190,7 +3071,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
+      <c r="A14" s="46"/>
       <c r="B14" s="4" t="s">
         <v>26</v>
       </c>
@@ -2202,7 +3083,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="39" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -2216,31 +3097,31 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="6" t="s">
         <v>31</v>
       </c>
@@ -2252,7 +3133,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="4" t="s">
         <v>30</v>
       </c>
@@ -2264,7 +3145,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="4" t="s">
         <v>33</v>
       </c>
@@ -2276,7 +3157,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="7" t="s">
         <v>36</v>
       </c>
@@ -2302,7 +3183,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="37" t="s">
         <v>47</v>
       </c>
       <c r="B23" s="9" t="s">
@@ -2316,7 +3197,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
+      <c r="A24" s="38"/>
       <c r="B24" s="9" t="s">
         <v>48</v>
       </c>
@@ -2328,7 +3209,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
+      <c r="A25" s="38"/>
       <c r="B25" s="9" t="s">
         <v>46</v>
       </c>
@@ -2340,7 +3221,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="9" t="s">
         <v>54</v>
       </c>
@@ -2352,31 +3233,31 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
+      <c r="A27" s="38"/>
       <c r="B27" s="9" t="s">
         <v>57</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
+      <c r="A28" s="38"/>
       <c r="B28" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
+      <c r="A29" s="38"/>
       <c r="B29" s="9" t="s">
         <v>60</v>
       </c>
@@ -2388,7 +3269,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="9" t="s">
         <v>61</v>
       </c>
@@ -2400,7 +3281,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
+      <c r="A31" s="38"/>
       <c r="B31" s="12" t="s">
         <v>63</v>
       </c>
@@ -2510,10 +3391,10 @@
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
       <c r="B40" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>15</v>
@@ -2521,7 +3402,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>79</v>
@@ -2595,10 +3476,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>7</v>

--- a/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/resource/pageobject/Object.xlsx
+++ b/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/resource/pageobject/Object.xlsx
@@ -2178,7 +2178,7 @@
   <dimension ref="A1:IV58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>

--- a/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/resource/pageobject/Object.xlsx
+++ b/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/resource/pageobject/Object.xlsx
@@ -802,10 +802,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>//android.widget.TextView[@content-desc="搜索"]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>//android.widget.TextView[@text='</t>
     </r>
@@ -974,22 +970,36 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>//android.widget.RadioButton[contains(@content-desc,"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
+    <t>梅博众</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>总额</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[contains(@content-desc,"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>梅博众</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Segoe UI"/>
+      <t>总额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t>")]</t>
@@ -997,20 +1007,8 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>梅博众</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>总额</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//android.view.View[contains(@content-desc,"</t>
+    <r>
+      <t>//android.view.View[@content-desc="</t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1018,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>总额</t>
+      <t>婴儿沐浴露</t>
     </r>
     <r>
       <rPr>
@@ -1029,13 +1027,21 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>")]</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//android.view.View[@content-desc="</t>
+      <t>"]/../following-sibling::android.view.View//android.widget.EditText[@resource-id='quantity_']</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>婴儿沐浴露数量</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>净营业额</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[contains(@content-desc,"</t>
     </r>
     <r>
       <rPr>
@@ -1045,7 +1051,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>婴儿沐浴露</t>
+      <t>净营业额</t>
     </r>
     <r>
       <rPr>
@@ -1054,21 +1060,13 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>"]/../following-sibling::android.view.View//android.widget.EditText[@resource-id='quantity_']</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>婴儿沐浴露数量</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>净营业额</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//android.view.View[contains(@content-desc,"</t>
+      <t>")]/preceding-sibling::android.view.View</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[@content-desc="</t>
     </r>
     <r>
       <rPr>
@@ -1078,7 +1076,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>净营业额</t>
+      <t>销售指数</t>
     </r>
     <r>
       <rPr>
@@ -1087,8 +1085,52 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>")]/preceding-sibling::android.view.View</t>
-    </r>
+      <t>"]/preceding-sibling::android.view.View</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售指数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.Button[@content-desc="去支付"]/../preceding-sibling::android.view.View</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>多个验证</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存为常用购货人</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>多笔支付</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>本次支付金额</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>paymentAmount4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看详情</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.view.View[contains(@content-desc,"查看详情")]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>已支付金额</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1103,7 +1145,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>销售指数</t>
+      <t>已支付金额</t>
     </r>
     <r>
       <rPr>
@@ -1112,52 +1154,12 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>"]/preceding-sibling::android.view.View</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售指数</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.Button[@content-desc="去支付"]/../preceding-sibling::android.view.View</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>多个验证</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存为常用购货人</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>多笔支付</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>本次支付金额</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>paymentAmount4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看详情</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.view.View[contains(@content-desc,"查看详情")]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>已支付金额</t>
+      <t>"]/following-sibling::android.view.View</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余应付</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1172,7 +1174,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>已支付金额</t>
+      <t>剩余应付</t>
     </r>
     <r>
       <rPr>
@@ -1186,12 +1188,8 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>剩余应付</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//android.view.View[@content-desc="</t>
+    <r>
+      <t>//android.view.View[contains(@content-desc,"</t>
     </r>
     <r>
       <rPr>
@@ -1201,7 +1199,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>剩余应付</t>
+      <t>订单操作人</t>
     </r>
     <r>
       <rPr>
@@ -1210,8 +1208,12 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>"]/following-sibling::android.view.View</t>
-    </r>
+      <t>")]</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单操作人</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1226,7 +1228,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>订单操作人</t>
+      <t>购货渠道</t>
     </r>
     <r>
       <rPr>
@@ -1240,7 +1242,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>订单操作人</t>
+    <t>购货渠道</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1255,7 +1257,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>购货渠道</t>
+      <t>订单状态</t>
     </r>
     <r>
       <rPr>
@@ -1269,7 +1271,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>购货渠道</t>
+    <t>订单状态</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1284,7 +1286,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>订单状态</t>
+      <t>多笔支付</t>
     </r>
     <r>
       <rPr>
@@ -1298,12 +1300,12 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>订单状态</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//android.view.View[contains(@content-desc,"</t>
+    <t>付款信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(//android.widget.Button[@content-desc="</t>
     </r>
     <r>
       <rPr>
@@ -1313,7 +1315,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>多笔支付</t>
+      <t>重新购买</t>
     </r>
     <r>
       <rPr>
@@ -1322,17 +1324,13 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>")]</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>付款信息</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>(//android.widget.Button[@content-desc="</t>
+      <t>"])[2]/preceding-sibling::android.view.View</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[contains(@content-desc,"</t>
     </r>
     <r>
       <rPr>
@@ -1342,7 +1340,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>重新购买</t>
+      <t>购货总额</t>
     </r>
     <r>
       <rPr>
@@ -1351,13 +1349,13 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>"])[2]/preceding-sibling::android.view.View</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//android.view.View[contains(@content-desc,"</t>
+      <t>")]</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(//android.view.View[contains(@content-desc,"</t>
     </r>
     <r>
       <rPr>
@@ -1376,13 +1374,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>")]</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>(//android.view.View[contains(@content-desc,"</t>
+      <t>")]/following-sibling::android.view.View[contains(@content-desc,"</t>
     </r>
     <r>
       <rPr>
@@ -1392,7 +1384,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>购货总额</t>
+      <t>运费</t>
     </r>
     <r>
       <rPr>
@@ -1401,7 +1393,13 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>")]/following-sibling::android.view.View[contains(@content-desc,"</t>
+      <t>")])[1]</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[contains(@content-desc,"</t>
     </r>
     <r>
       <rPr>
@@ -1411,7 +1409,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>运费</t>
+      <t>购货总额</t>
     </r>
     <r>
       <rPr>
@@ -1420,13 +1418,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>")])[1]</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//android.view.View[contains(@content-desc,"</t>
+      <t>")]/following-sibling::android.view.View[contains(@content-desc,"</t>
     </r>
     <r>
       <rPr>
@@ -1436,7 +1428,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>购货总额</t>
+      <t>扣减悦享分</t>
     </r>
     <r>
       <rPr>
@@ -1445,7 +1437,33 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>")]/following-sibling::android.view.View[contains(@content-desc,"</t>
+      <t>")]</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>运费</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>多笔支付</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>多种金额</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>去结算</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.ListView[@resource-id='selectFrequentBuyerList']/android.view.View[1]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.widget.TextView[@content-desc="</t>
     </r>
     <r>
       <rPr>
@@ -1455,7 +1473,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>扣减悦享分</t>
+      <t>搜索</t>
     </r>
     <r>
       <rPr>
@@ -1464,24 +1482,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>")]</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>运费</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>多笔支付</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>多种金额</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>去结算</t>
+      <t>"]</t>
+    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1752,7 +1754,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1842,9 +1844,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2177,8 +2176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -2191,12 +2190,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -2213,26 +2212,26 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>140</v>
+      <c r="C3" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="36"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="17" t="s">
         <v>90</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2243,7 +2242,7 @@
         <v>107</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2257,7 +2256,7 @@
         <v>108</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>109</v>
@@ -2328,10 +2327,10 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="26"/>
       <c r="B12" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>91</v>
@@ -2340,10 +2339,10 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="26"/>
       <c r="B13" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>91</v>
@@ -2352,10 +2351,10 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="26"/>
       <c r="B14" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>91</v>
@@ -2364,10 +2363,10 @@
     <row r="15" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
       <c r="B15" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" s="30" t="s">
         <v>160</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>161</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>5</v>
@@ -2376,10 +2375,10 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="26"/>
       <c r="B16" s="27" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>95</v>
@@ -2388,10 +2387,10 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="26"/>
       <c r="B17" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>91</v>
@@ -2400,10 +2399,10 @@
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="26"/>
       <c r="B18" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="C18" s="31" t="s">
         <v>162</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>91</v>
@@ -2412,7 +2411,7 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="26"/>
       <c r="B19" s="27" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C19" s="27" t="s">
         <v>64</v>
@@ -2424,10 +2423,10 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="26"/>
       <c r="B20" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>91</v>
@@ -2512,10 +2511,10 @@
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="20"/>
       <c r="B27" s="27" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>91</v>
@@ -2536,10 +2535,10 @@
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="21"/>
       <c r="B29" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>91</v>
@@ -2548,10 +2547,10 @@
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="21"/>
       <c r="B30" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>91</v>
@@ -2563,7 +2562,7 @@
         <v>69</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>91</v>
@@ -2572,10 +2571,10 @@
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="20"/>
       <c r="B32" s="27" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>91</v>
@@ -2587,7 +2586,7 @@
         <v>36</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D33" s="18" t="s">
         <v>91</v>
@@ -2596,10 +2595,10 @@
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
       <c r="B34" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D34" s="18" t="s">
         <v>91</v>
@@ -2613,7 +2612,7 @@
         <v>46</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>95</v>
@@ -2634,10 +2633,10 @@
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="20"/>
       <c r="B37" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>91</v>
@@ -2677,7 +2676,7 @@
         <v>60</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>91</v>
@@ -2686,10 +2685,10 @@
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="20"/>
       <c r="B41" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>95</v>
@@ -2698,13 +2697,13 @@
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="20"/>
       <c r="B42" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -2720,10 +2719,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B44" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>95</v>
@@ -2731,10 +2730,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B45" s="27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D45" s="18" t="s">
         <v>91</v>
@@ -2756,7 +2755,7 @@
         <v>134</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D47" s="18" t="s">
         <v>111</v>
@@ -2767,10 +2766,10 @@
         <v>135</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
@@ -2778,10 +2777,10 @@
         <v>136</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
@@ -2789,7 +2788,7 @@
         <v>137</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D50" s="18" t="s">
         <v>91</v>
@@ -2808,10 +2807,10 @@
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B52" s="27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D52" s="18" t="s">
         <v>91</v>
@@ -2819,10 +2818,10 @@
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B53" s="27" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D53" s="18" t="s">
         <v>91</v>
@@ -2830,10 +2829,10 @@
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B54" s="27" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D54" s="18" t="s">
         <v>91</v>
@@ -2841,10 +2840,10 @@
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B55" s="27" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D55" s="18" t="s">
         <v>91</v>
@@ -2852,10 +2851,10 @@
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" s="27" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D56" s="18" t="s">
         <v>91</v>
@@ -2863,10 +2862,10 @@
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B57" s="27" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D57" s="18" t="s">
         <v>91</v>
@@ -2874,10 +2873,10 @@
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B58" s="27" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D58" s="18" t="s">
         <v>91</v>
@@ -2911,12 +2910,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -2933,7 +2932,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="41" t="s">
         <v>39</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2947,7 +2946,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="4" t="s">
         <v>44</v>
       </c>
@@ -2959,7 +2958,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
@@ -2971,7 +2970,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="43" t="s">
         <v>96</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -2985,7 +2984,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
@@ -2997,7 +2996,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
@@ -3009,7 +3008,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
@@ -3021,7 +3020,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="4" t="s">
         <v>56</v>
       </c>
@@ -3033,7 +3032,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
@@ -3045,7 +3044,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="46" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -3059,7 +3058,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
+      <c r="A13" s="44"/>
       <c r="B13" s="6" t="s">
         <v>24</v>
       </c>
@@ -3071,7 +3070,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="46"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="4" t="s">
         <v>26</v>
       </c>
@@ -3083,7 +3082,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="38" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -3097,31 +3096,31 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="6" t="s">
         <v>31</v>
       </c>
@@ -3133,7 +3132,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="4" t="s">
         <v>30</v>
       </c>
@@ -3145,7 +3144,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="4" t="s">
         <v>33</v>
       </c>
@@ -3157,7 +3156,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="7" t="s">
         <v>36</v>
       </c>
@@ -3183,7 +3182,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="36" t="s">
         <v>47</v>
       </c>
       <c r="B23" s="9" t="s">
@@ -3197,7 +3196,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
+      <c r="A24" s="37"/>
       <c r="B24" s="9" t="s">
         <v>48</v>
       </c>
@@ -3209,7 +3208,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
+      <c r="A25" s="37"/>
       <c r="B25" s="9" t="s">
         <v>46</v>
       </c>
@@ -3221,7 +3220,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
+      <c r="A26" s="37"/>
       <c r="B26" s="9" t="s">
         <v>54</v>
       </c>
@@ -3233,31 +3232,31 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
+      <c r="A27" s="37"/>
       <c r="B27" s="9" t="s">
         <v>57</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="38"/>
+      <c r="A28" s="37"/>
       <c r="B28" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
+      <c r="A29" s="37"/>
       <c r="B29" s="9" t="s">
         <v>60</v>
       </c>
@@ -3269,7 +3268,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
+      <c r="A30" s="37"/>
       <c r="B30" s="9" t="s">
         <v>61</v>
       </c>
@@ -3281,7 +3280,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="38"/>
+      <c r="A31" s="37"/>
       <c r="B31" s="12" t="s">
         <v>63</v>
       </c>
@@ -3479,7 +3478,7 @@
         <v>106</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>7</v>

--- a/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/resource/pageobject/Object.xlsx
+++ b/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/resource/pageobject/Object.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="217">
   <si>
     <r>
       <rPr>
@@ -472,10 +472,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>js-site-search-input</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>数量</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -484,7 +480,96 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
+    <t>婴儿沐浴露</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>去支付</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付成功信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>公众号链接</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>线上工作室</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Xpa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>th</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.ListView/android.widget.TextView[@text='hybris']</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Xpa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>th</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人护理</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品输入框</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量添加</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Xpa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>th</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前购货人</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额小计</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -499,7 +584,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>购物车</t>
+      <t>小计</t>
     </r>
     <r>
       <rPr>
@@ -510,82 +595,24 @@
       </rPr>
       <t>")]</t>
     </r>
-  </si>
-  <si>
-    <t>婴儿沐浴露</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>去支付</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付宝</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付成功信息</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>公众号链接</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>线上工作室</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Xpa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>th</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.ListView/android.widget.TextView[@text='hybris']</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Xpa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>th</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>我知道了</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人护理</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.view.View[@content-desc="@"]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品输入框</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单总金额</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.widget.Button[@content-desc="</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -594,7 +621,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>婴儿沐浴露</t>
+      <t>去支付</t>
     </r>
     <r>
       <rPr>
@@ -603,7 +630,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>"]/../preceding-sibling::android.view.View[contains(@content-desc,"</t>
     </r>
     <r>
       <rPr>
@@ -613,21 +640,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>婴儿沐浴露</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量添加</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.Button[@content-desc="a"]/preceding-sibling::android.widget.Button[1]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Xpa</t>
+      <t>订单金额</t>
     </r>
     <r>
       <rPr>
@@ -636,17 +649,60 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>th</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前购货人</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//android.view.View[@content-desc="</t>
+      <t>")]</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交成功</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.view.View[contains(@content-desc,"提交成功")]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即支付</t>
+  </si>
+  <si>
+    <t>支付方式</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>(//android.widget.CheckedTextView)[2]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码输入框</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消支付</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成支付</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付成功信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付未完成信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.Image[@content-desc="clock"]/following-sibling::android.view.View</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.widget.TextView[@text='</t>
     </r>
     <r>
       <rPr>
@@ -656,7 +712,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>当前购货人</t>
+      <t>线上工作室</t>
     </r>
     <r>
       <rPr>
@@ -665,17 +721,25 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>:"]/following-sibling::android.view.View</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>金额小计</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//android.view.View[contains(@content-desc, "</t>
+      <t>']</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[contains(@name,"您已成功支付")]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[contains(@name,"购货卡号")]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[contains(@content-desc,"</t>
     </r>
     <r>
       <rPr>
@@ -685,7 +749,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>小计</t>
+      <t>应付总金额</t>
     </r>
     <r>
       <rPr>
@@ -694,174 +758,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>")]</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单总金额</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//android.widget.Button[@content-desc="</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>去支付</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>"]/../preceding-sibling::android.view.View[contains(@content-desc,"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>订单金额</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>")]</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交成功</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.view.View[contains(@content-desc,"提交成功")]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>立即支付</t>
-  </si>
-  <si>
-    <t>支付方式</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>(//android.widget.CheckedTextView)[2]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码输入框</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消支付</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成支付</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付成功信息</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付未完成信息</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.Image[@content-desc="clock"]/following-sibling::android.view.View</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//android.widget.TextView[@text='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>线上工作室</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>']</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>//XCUIElementTypeStaticText[contains(@name,"您已成功支付")]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.Image[@content-desc="tick-coin"]/following-sibling::android.view.View</t>
-  </si>
-  <si>
-    <t>//XCUIElementTypeStaticText[contains(@name,"购货卡号")]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//android.view.View[contains(@content-desc,"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>应付总金额</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>")]/following-sibling::android.view.View</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -880,26 +776,6 @@
   </si>
   <si>
     <t>微信支付</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.tencent.mm:id/hz</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.tencent.mm:id/lp</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.RelativeLayout[@resource-id='com.tencent.mm:id/bri']/android.widget.RelativeLayout</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.tencent.mm:id/co1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.tencent.mm:id/dxg</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1305,7 +1181,7 @@
   </si>
   <si>
     <r>
-      <t>(//android.widget.Button[@content-desc="</t>
+      <t>//android.view.View[contains(@content-desc,"</t>
     </r>
     <r>
       <rPr>
@@ -1315,7 +1191,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>重新购买</t>
+      <t>购货总额</t>
     </r>
     <r>
       <rPr>
@@ -1324,13 +1200,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>"])[2]/preceding-sibling::android.view.View</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//android.view.View[contains(@content-desc,"</t>
+      <t>")]/following-sibling::android.view.View[contains(@content-desc,"</t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1210,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>购货总额</t>
+      <t>扣减悦享分</t>
     </r>
     <r>
       <rPr>
@@ -1354,8 +1224,24 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>(//android.view.View[contains(@content-desc,"</t>
+    <t>运费</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>多笔支付</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>多种金额</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.ListView[@resource-id='selectFrequentBuyerList']/android.view.View[1]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.widget.TextView[@content-desc="</t>
     </r>
     <r>
       <rPr>
@@ -1365,7 +1251,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>购货总额</t>
+      <t>搜索</t>
     </r>
     <r>
       <rPr>
@@ -1374,7 +1260,57 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>")]/following-sibling::android.view.View[contains(@content-desc,"</t>
+      <t>"]</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.mm:id/hx</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.mm:id/l7</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一步</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.mm:id/ak_</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.LinearLayout[@resource-id='com.tencent.mm:id/cb_']/android.widget.EditText</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.mm:id/alk</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>不检查通讯录</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>我知道了1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(//android.widget.Button[@content-desc='</t>
     </r>
     <r>
       <rPr>
@@ -1384,7 +1320,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>运费</t>
+      <t>我知道了</t>
     </r>
     <r>
       <rPr>
@@ -1393,13 +1329,13 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>")])[1]</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//android.view.View[contains(@content-desc,"</t>
+      <t>'])[2]</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.widget.Button[@content-desc='</t>
     </r>
     <r>
       <rPr>
@@ -1409,7 +1345,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>购货总额</t>
+      <t>我知道了</t>
     </r>
     <r>
       <rPr>
@@ -1418,7 +1354,41 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>")]/following-sibling::android.view.View[contains(@content-desc,"</t>
+      <t>']</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.EditText[@resource-id='qtyInput']/following-sibling::android.widget.Button</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即购买</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即购买</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.RelativeLayout[@resource-id='com.tencent.mm:id/cj0']/android.widget.RelativeLayout</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> com.tencent.mm:id/cix</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次支付</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入购物车</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.widget.Button[@content-desc="</t>
     </r>
     <r>
       <rPr>
@@ -1428,7 +1398,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>扣减悦享分</t>
+      <t>搜索</t>
     </r>
     <r>
       <rPr>
@@ -1437,33 +1407,13 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>")]</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>运费</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>多笔支付</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>多种金额</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>去结算</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.ListView[@resource-id='selectFrequentBuyerList']/android.view.View[1]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//android.widget.TextView[@content-desc="</t>
+      <t>"]/preceding-sibling::android.widget.EditText</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[contains(@content-desc, "</t>
     </r>
     <r>
       <rPr>
@@ -1473,7 +1423,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>搜索</t>
+      <t>购货卡号</t>
     </r>
     <r>
       <rPr>
@@ -1482,7 +1432,129 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>"]</t>
+      <t>")]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[contains(@content-desc,"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>购货总额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>")]</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(//android.view.View[contains(@content-desc,"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>购货总额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>")]/following-sibling::android.view.View[contains(@content-desc,"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运费</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>")])[1]</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.mm:id/dr3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[@content-desc="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商品清单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"]/../following-sibling::android.widget.ListView/android.view.View/android.view.View//android.view.View</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[contains(@content-desc,"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>您已成功支付</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>")]</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1491,7 +1563,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
@@ -1568,6 +1640,13 @@
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1754,7 +1833,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1846,6 +1925,15 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1855,10 +1943,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2174,10 +2262,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV58"/>
+  <dimension ref="A1:IV66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -2190,12 +2278,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -2212,185 +2300,185 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
-        <v>88</v>
-      </c>
+      <c r="A3" s="31"/>
       <c r="B3" s="27" t="s">
-        <v>88</v>
+        <v>192</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>91</v>
+        <v>190</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="35"/>
-      <c r="B4" s="17" t="s">
-        <v>90</v>
+      <c r="A4" s="31"/>
+      <c r="B4" s="27" t="s">
+        <v>193</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>150</v>
+        <v>194</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="31"/>
+      <c r="B5" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="31"/>
+      <c r="B6" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="31"/>
+      <c r="B7" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="38"/>
+      <c r="B9" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="20"/>
+      <c r="B12" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="17" t="s">
+      <c r="D12" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="20"/>
-      <c r="B7" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
-      <c r="B8" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="23"/>
-      <c r="B10" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
-      <c r="B11" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="26"/>
-      <c r="B12" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>91</v>
-      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="26"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="27" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="26"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="27" t="s">
-        <v>158</v>
+        <v>94</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>160</v>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>109</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="26"/>
-      <c r="B16" s="27" t="s">
-        <v>179</v>
+      <c r="A16" s="23"/>
+      <c r="B16" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>179</v>
+        <v>89</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="26"/>
-      <c r="B17" s="27" t="s">
-        <v>167</v>
+      <c r="A17" s="21"/>
+      <c r="B17" s="17" t="s">
+        <v>110</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>91</v>
@@ -2399,10 +2487,10 @@
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="26"/>
       <c r="B18" s="27" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>91</v>
@@ -2411,481 +2499,576 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="26"/>
       <c r="B19" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>95</v>
+        <v>142</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="26"/>
       <c r="B20" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>163</v>
+        <v>144</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="23"/>
-      <c r="B21" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>116</v>
+    <row r="21" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="26"/>
+      <c r="B21" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>146</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="26"/>
+      <c r="B22" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="B22" s="17" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="26"/>
+      <c r="B23" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="26"/>
+      <c r="B24" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="26"/>
+      <c r="B25" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="26"/>
+      <c r="B26" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="23"/>
+      <c r="B27" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="29"/>
-      <c r="B23" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="29"/>
+      <c r="B29" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B30" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="C30" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="20"/>
-      <c r="B25" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="20"/>
-      <c r="B26" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="20"/>
-      <c r="B27" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="21"/>
-      <c r="B28" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="21"/>
-      <c r="B29" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="21"/>
-      <c r="B30" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="20"/>
       <c r="B31" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>91</v>
+        <v>205</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="20"/>
-      <c r="B32" s="27" t="s">
-        <v>202</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>91</v>
+      <c r="B32" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="20"/>
-      <c r="B33" s="27" t="s">
-        <v>36</v>
+      <c r="B33" s="33" t="s">
+        <v>113</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="21"/>
-      <c r="B34" s="9" t="s">
-        <v>169</v>
+      <c r="A34" s="20"/>
+      <c r="B34" s="27" t="s">
+        <v>158</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="D34" s="18" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>95</v>
+      <c r="A35" s="21"/>
+      <c r="B35" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="20"/>
+      <c r="A36" s="21"/>
       <c r="B36" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>95</v>
+        <v>159</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="20"/>
+      <c r="A37" s="21"/>
       <c r="B37" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>177</v>
+        <v>162</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>126</v>
+      <c r="A38" s="20"/>
+      <c r="B38" s="27" t="s">
+        <v>69</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>127</v>
+        <v>212</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
-      <c r="B39" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>129</v>
+      <c r="A39" s="20"/>
+      <c r="B39" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>60</v>
+      <c r="A40" s="20"/>
+      <c r="B40" s="27" t="s">
+        <v>36</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="20"/>
+      <c r="A41" s="21"/>
       <c r="B41" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="D41" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="20"/>
-      <c r="B42" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B43" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="C43" s="24" t="s">
-        <v>131</v>
+      <c r="A43" s="20"/>
+      <c r="B43" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B44" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="C44" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D44" s="1" t="s">
+      <c r="A44" s="20"/>
+      <c r="B44" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="21"/>
+      <c r="B46" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="20"/>
+      <c r="B48" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B45" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B46" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D46" s="18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B47" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D47" s="18" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B48" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B49" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>154</v>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="20"/>
+      <c r="B49" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>168</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B50" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B51" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D51" s="18" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B50" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B51" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="C51" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B52" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D52" s="18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B53" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>189</v>
+        <v>170</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>171</v>
       </c>
       <c r="D53" s="18" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B54" s="27" t="s">
-        <v>191</v>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B54" s="17" t="s">
+        <v>124</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>190</v>
+        <v>125</v>
       </c>
       <c r="D54" s="18" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B55" s="27" t="s">
-        <v>193</v>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B55" s="17" t="s">
+        <v>126</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="D55" s="18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B56" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B57" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B58" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D58" s="18" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B56" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D56" s="18" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B59" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B60" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D60" s="18" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B57" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D57" s="18" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B61" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D61" s="18" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B58" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D58" s="18" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B62" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B63" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B64" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D64" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B65" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B66" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D66" s="18" t="s">
         <v>91</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2910,12 +3093,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -2932,7 +3115,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="44" t="s">
         <v>39</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2946,7 +3129,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="4" t="s">
         <v>44</v>
       </c>
@@ -2958,7 +3141,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
@@ -2970,7 +3153,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="46" t="s">
         <v>96</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -2984,7 +3167,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
@@ -2996,7 +3179,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
@@ -3008,7 +3191,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
@@ -3020,7 +3203,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="4" t="s">
         <v>56</v>
       </c>
@@ -3032,7 +3215,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
@@ -3044,7 +3227,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="49" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -3058,7 +3241,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="6" t="s">
         <v>24</v>
       </c>
@@ -3070,7 +3253,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="4" t="s">
         <v>26</v>
       </c>
@@ -3082,7 +3265,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="41" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -3096,31 +3279,31 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="6" t="s">
         <v>31</v>
       </c>
@@ -3132,7 +3315,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="4" t="s">
         <v>30</v>
       </c>
@@ -3144,7 +3327,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="4" t="s">
         <v>33</v>
       </c>
@@ -3156,7 +3339,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="7" t="s">
         <v>36</v>
       </c>
@@ -3182,7 +3365,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="39" t="s">
         <v>47</v>
       </c>
       <c r="B23" s="9" t="s">
@@ -3196,7 +3379,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
+      <c r="A24" s="40"/>
       <c r="B24" s="9" t="s">
         <v>48</v>
       </c>
@@ -3208,7 +3391,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
+      <c r="A25" s="40"/>
       <c r="B25" s="9" t="s">
         <v>46</v>
       </c>
@@ -3220,7 +3403,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="9" t="s">
         <v>54</v>
       </c>
@@ -3232,31 +3415,31 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="9" t="s">
         <v>57</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="9" t="s">
         <v>60</v>
       </c>
@@ -3268,7 +3451,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="9" t="s">
         <v>61</v>
       </c>
@@ -3280,7 +3463,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="12" t="s">
         <v>63</v>
       </c>
@@ -3390,10 +3573,10 @@
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
       <c r="B40" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>15</v>
@@ -3401,7 +3584,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>79</v>
@@ -3475,10 +3658,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>7</v>

--- a/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/resource/pageobject/Object.xlsx
+++ b/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/resource/pageobject/Object.xlsx
@@ -697,10 +697,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>//android.widget.Image[@content-desc="clock"]/following-sibling::android.view.View</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>//android.widget.TextView[@text='</t>
     </r>
@@ -1556,6 +1552,10 @@
       </rPr>
       <t>")]</t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.Image[@content-desc="order-fail"]/following-sibling::android.view.View</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2265,7 +2265,7 @@
   <dimension ref="A1:IV66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -2302,10 +2302,10 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="31"/>
       <c r="B3" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -2314,10 +2314,10 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="31"/>
       <c r="B4" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2326,10 +2326,10 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="31"/>
       <c r="B5" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>91</v>
@@ -2338,10 +2338,10 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="31"/>
       <c r="B6" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
@@ -2350,10 +2350,10 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="31"/>
       <c r="B7" s="27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
@@ -2367,7 +2367,7 @@
         <v>88</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>91</v>
@@ -2379,7 +2379,7 @@
         <v>90</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>5</v>
@@ -2390,7 +2390,7 @@
         <v>104</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>5</v>
@@ -2404,7 +2404,7 @@
         <v>105</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>106</v>
@@ -2425,10 +2425,10 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="21"/>
       <c r="B13" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>91</v>
@@ -2440,7 +2440,7 @@
         <v>94</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>91</v>
@@ -2478,7 +2478,7 @@
         <v>110</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>91</v>
@@ -2487,10 +2487,10 @@
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="26"/>
       <c r="B18" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>91</v>
@@ -2499,10 +2499,10 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="26"/>
       <c r="B19" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>91</v>
@@ -2511,10 +2511,10 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="26"/>
       <c r="B20" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>91</v>
@@ -2523,10 +2523,10 @@
     <row r="21" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
       <c r="B21" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" s="30" t="s">
         <v>145</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>146</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>5</v>
@@ -2535,10 +2535,10 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>95</v>
@@ -2547,10 +2547,10 @@
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="26"/>
       <c r="B23" s="27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>91</v>
@@ -2559,10 +2559,10 @@
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="26"/>
       <c r="B24" s="27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>91</v>
@@ -2571,7 +2571,7 @@
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="26"/>
       <c r="B25" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C25" s="27" t="s">
         <v>64</v>
@@ -2583,10 +2583,10 @@
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="26"/>
       <c r="B26" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>91</v>
@@ -2624,7 +2624,7 @@
         <v>111</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>112</v>
@@ -2638,7 +2638,7 @@
         <v>45</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>95</v>
@@ -2647,10 +2647,10 @@
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="20"/>
       <c r="B31" s="27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>95</v>
@@ -2674,7 +2674,7 @@
         <v>113</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D33" s="18" t="s">
         <v>112</v>
@@ -2683,10 +2683,10 @@
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="20"/>
       <c r="B34" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D34" s="18" t="s">
         <v>91</v>
@@ -2707,10 +2707,10 @@
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
       <c r="B36" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>91</v>
@@ -2719,10 +2719,10 @@
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
       <c r="B37" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>91</v>
@@ -2734,7 +2734,7 @@
         <v>69</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D38" s="18" t="s">
         <v>91</v>
@@ -2743,10 +2743,10 @@
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="20"/>
       <c r="B39" s="27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>91</v>
@@ -2758,7 +2758,7 @@
         <v>36</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>91</v>
@@ -2767,10 +2767,10 @@
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
       <c r="B41" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="D41" s="18" t="s">
         <v>91</v>
@@ -2805,10 +2805,10 @@
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="20"/>
       <c r="B44" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D44" s="18" t="s">
         <v>91</v>
@@ -2848,7 +2848,7 @@
         <v>60</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D47" s="18" t="s">
         <v>91</v>
@@ -2857,10 +2857,10 @@
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="20"/>
       <c r="B48" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>95</v>
@@ -2869,13 +2869,13 @@
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="20"/>
       <c r="B49" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C49" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="D49" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -2891,10 +2891,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B51" s="32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>95</v>
@@ -2902,10 +2902,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B52" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C52" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>95</v>
@@ -2913,10 +2913,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B53" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="C53" s="27" t="s">
         <v>170</v>
-      </c>
-      <c r="C53" s="27" t="s">
-        <v>171</v>
       </c>
       <c r="D53" s="18" t="s">
         <v>91</v>
@@ -2938,7 +2938,7 @@
         <v>126</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D55" s="18" t="s">
         <v>108</v>
@@ -2949,10 +2949,10 @@
         <v>127</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -2960,10 +2960,10 @@
         <v>128</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -2971,7 +2971,7 @@
         <v>129</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D58" s="18" t="s">
         <v>91</v>
@@ -2982,7 +2982,7 @@
         <v>130</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>131</v>
+        <v>216</v>
       </c>
       <c r="D59" s="18" t="s">
         <v>112</v>
@@ -2990,10 +2990,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B60" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="D60" s="18" t="s">
         <v>91</v>
@@ -3001,10 +3001,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B61" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="D61" s="18" t="s">
         <v>91</v>
@@ -3012,10 +3012,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B62" s="27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D62" s="18" t="s">
         <v>91</v>
@@ -3023,10 +3023,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B63" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D63" s="18" t="s">
         <v>91</v>
@@ -3034,10 +3034,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B64" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D64" s="18" t="s">
         <v>91</v>
@@ -3045,10 +3045,10 @@
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D65" s="18" t="s">
         <v>91</v>
@@ -3056,10 +3056,10 @@
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B66" s="27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D66" s="18" t="s">
         <v>91</v>
@@ -3284,7 +3284,7 @@
         <v>28</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>7</v>
@@ -3296,7 +3296,7 @@
         <v>29</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>7</v>
@@ -3420,7 +3420,7 @@
         <v>57</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>7</v>
@@ -3432,7 +3432,7 @@
         <v>58</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>7</v>
@@ -3661,7 +3661,7 @@
         <v>103</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>7</v>

--- a/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/resource/pageobject/Object.xlsx
+++ b/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/resource/pageobject/Object.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="217">
   <si>
     <r>
       <rPr>
@@ -1371,10 +1371,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> com.tencent.mm:id/cix</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>再次支付</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1556,6 +1552,10 @@
   </si>
   <si>
     <t>//android.widget.Image[@content-desc="order-fail"]/following-sibling::android.view.View</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.mm:id/cix</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2265,7 +2265,7 @@
   <dimension ref="A1:IV66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -2478,7 +2478,7 @@
         <v>110</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>91</v>
@@ -2638,7 +2638,7 @@
         <v>45</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>95</v>
@@ -2674,7 +2674,7 @@
         <v>113</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D33" s="18" t="s">
         <v>112</v>
@@ -2734,7 +2734,7 @@
         <v>69</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D38" s="18" t="s">
         <v>91</v>
@@ -2746,7 +2746,7 @@
         <v>184</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>91</v>
@@ -2891,10 +2891,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B51" s="32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>95</v>
@@ -2949,7 +2949,7 @@
         <v>127</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>133</v>
@@ -2960,7 +2960,7 @@
         <v>128</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>133</v>
@@ -2971,7 +2971,7 @@
         <v>129</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D58" s="18" t="s">
         <v>91</v>
@@ -2982,7 +2982,7 @@
         <v>130</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D59" s="18" t="s">
         <v>112</v>
@@ -3059,7 +3059,7 @@
         <v>186</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D66" s="18" t="s">
         <v>91</v>

--- a/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/resource/pageobject/Object.xlsx
+++ b/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/resource/pageobject/Object.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="217">
   <si>
     <r>
       <rPr>
@@ -2264,8 +2264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>

--- a/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/resource/pageobject/Object.xlsx
+++ b/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/resource/pageobject/Object.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="223">
   <si>
     <r>
       <rPr>
@@ -795,10 +795,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>ABOCode</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>//android.view.View[contains(@content-desc,"</t>
     </r>
@@ -1556,6 +1552,55 @@
   </si>
   <si>
     <t>com.tencent.mm:id/cix</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用购货人输入框</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用购货人按钮</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc="选择常用购货人"]/../following-sibling::android.view.View//android.widget.EditText</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>(//android.view.View[@content-desc="确定"])[2]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定常用购货人</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[@content-desc="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>确定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"]</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定更改常用购货人</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1649,7 +1694,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1674,14 +1719,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1818,22 +1857,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFE9E9E9"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1921,9 +1951,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2262,10 +2289,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV66"/>
+  <dimension ref="A1:IV69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -2278,12 +2305,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="36"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="35"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -2300,86 +2327,86 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
+      <c r="A3" s="30"/>
       <c r="B3" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="31"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="31"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="31"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="36" t="s">
         <v>88</v>
       </c>
       <c r="B8" s="27" t="s">
         <v>88</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="38"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="17" t="s">
         <v>90</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>5</v>
@@ -2390,7 +2417,7 @@
         <v>104</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>5</v>
@@ -2425,10 +2452,10 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="21"/>
       <c r="B13" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>91</v>
@@ -2440,7 +2467,7 @@
         <v>94</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>91</v>
@@ -2478,7 +2505,7 @@
         <v>110</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>91</v>
@@ -2490,7 +2517,7 @@
         <v>140</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>91</v>
@@ -2502,7 +2529,7 @@
         <v>141</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>91</v>
@@ -2520,49 +2547,49 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="26"/>
       <c r="B21" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="C21" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="C21" s="30" t="s">
-        <v>145</v>
-      </c>
       <c r="D21" s="1" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>95</v>
+        <v>216</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="26"/>
       <c r="B23" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>91</v>
+        <v>163</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="26"/>
       <c r="B24" s="27" t="s">
-        <v>147</v>
+        <v>222</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>146</v>
+        <v>219</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>91</v>
@@ -2571,244 +2598,242 @@
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="26"/>
       <c r="B25" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>95</v>
+        <v>220</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="26"/>
       <c r="B26" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>148</v>
+        <v>151</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="23"/>
-      <c r="B27" s="17" t="s">
+      <c r="A27" s="26"/>
+      <c r="B27" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="26"/>
+      <c r="B28" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="26"/>
+      <c r="B29" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="23"/>
+      <c r="B30" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C30" s="27" t="s">
         <v>100</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="29"/>
-      <c r="B29" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>207</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="20"/>
-      <c r="B31" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>203</v>
+      <c r="A31" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>99</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="29"/>
+      <c r="B32" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="20"/>
-      <c r="B32" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="20"/>
-      <c r="B33" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="20"/>
       <c r="B34" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="C34" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="20"/>
+      <c r="B35" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="20"/>
+      <c r="B36" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="20"/>
+      <c r="B37" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="D34" s="18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
-      <c r="B35" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="9" t="s">
-        <v>161</v>
-      </c>
       <c r="C37" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="20"/>
-      <c r="B38" s="27" t="s">
-        <v>69</v>
+      <c r="A38" s="21"/>
+      <c r="B38" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>210</v>
+        <v>115</v>
       </c>
       <c r="D38" s="18" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="20"/>
-      <c r="B39" s="27" t="s">
-        <v>184</v>
+      <c r="A39" s="21"/>
+      <c r="B39" s="9" t="s">
+        <v>157</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>211</v>
+        <v>158</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="20"/>
-      <c r="B40" s="27" t="s">
-        <v>36</v>
+      <c r="A40" s="21"/>
+      <c r="B40" s="9" t="s">
+        <v>160</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="21"/>
-      <c r="B41" s="9" t="s">
-        <v>154</v>
+      <c r="A41" s="20"/>
+      <c r="B41" s="27" t="s">
+        <v>69</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>155</v>
+        <v>209</v>
       </c>
       <c r="D41" s="18" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>95</v>
+      <c r="A42" s="20"/>
+      <c r="B42" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="20"/>
-      <c r="B43" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>95</v>
+      <c r="B43" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="20"/>
+      <c r="A44" s="21"/>
       <c r="B44" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>162</v>
+        <v>153</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="D44" s="18" t="s">
         <v>91</v>
@@ -2816,217 +2841,222 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>108</v>
+        <v>46</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="21"/>
-      <c r="B46" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="D46" s="18" t="s">
-        <v>112</v>
+      <c r="A46" s="20"/>
+      <c r="B46" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>135</v>
+      <c r="A47" s="20"/>
+      <c r="B47" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="D47" s="18" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="20"/>
-      <c r="B48" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>95</v>
+      <c r="A48" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="20"/>
-      <c r="B49" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>168</v>
+      <c r="A49" s="21"/>
+      <c r="B49" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B50" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="C50" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>95</v>
+      <c r="A50" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B51" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="C51" s="32" t="s">
-        <v>206</v>
+      <c r="A51" s="20"/>
+      <c r="B51" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>164</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B52" s="27" t="s">
+      <c r="A52" s="20"/>
+      <c r="B52" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B53" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B54" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="C54" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B55" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="C52" s="27" t="s">
+      <c r="C55" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B53" s="27" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B56" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="C56" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="C53" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="D53" s="18" t="s">
+      <c r="D56" s="18" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B54" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D54" s="18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B55" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D55" s="18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B56" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B57" s="17" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B58" s="17" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B59" s="17" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D59" s="18" t="s">
-        <v>112</v>
+      <c r="D59" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B60" s="27" t="s">
-        <v>171</v>
+      <c r="B60" s="17" t="s">
+        <v>128</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D60" s="18" t="s">
-        <v>91</v>
+        <v>211</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B61" s="27" t="s">
-        <v>173</v>
+      <c r="B61" s="17" t="s">
+        <v>129</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="D61" s="18" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B62" s="27" t="s">
-        <v>176</v>
+      <c r="B62" s="17" t="s">
+        <v>130</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>175</v>
+        <v>214</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B63" s="27" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D63" s="18" t="s">
         <v>91</v>
@@ -3034,10 +3064,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B64" s="27" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D64" s="18" t="s">
         <v>91</v>
@@ -3045,10 +3075,10 @@
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" s="27" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D65" s="18" t="s">
         <v>91</v>
@@ -3056,12 +3086,45 @@
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B66" s="27" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="D66" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B67" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B68" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D68" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B69" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D69" s="18" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3093,12 +3156,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="36"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="35"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -3115,7 +3178,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="43" t="s">
         <v>39</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -3129,7 +3192,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="4" t="s">
         <v>44</v>
       </c>
@@ -3141,7 +3204,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
@@ -3153,7 +3216,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="45" t="s">
         <v>96</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -3167,7 +3230,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
@@ -3179,7 +3242,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
@@ -3191,7 +3254,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
@@ -3203,7 +3266,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="4" t="s">
         <v>56</v>
       </c>
@@ -3215,7 +3278,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
@@ -3227,7 +3290,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="48" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -3241,7 +3304,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
+      <c r="A13" s="46"/>
       <c r="B13" s="6" t="s">
         <v>24</v>
       </c>
@@ -3253,7 +3316,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="4" t="s">
         <v>26</v>
       </c>
@@ -3265,7 +3328,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="40" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -3279,7 +3342,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="4" t="s">
         <v>28</v>
       </c>
@@ -3291,7 +3354,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="6" t="s">
         <v>29</v>
       </c>
@@ -3303,7 +3366,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="6" t="s">
         <v>31</v>
       </c>
@@ -3315,7 +3378,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="4" t="s">
         <v>30</v>
       </c>
@@ -3327,7 +3390,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="4" t="s">
         <v>33</v>
       </c>
@@ -3339,7 +3402,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="7" t="s">
         <v>36</v>
       </c>
@@ -3365,7 +3428,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="38" t="s">
         <v>47</v>
       </c>
       <c r="B23" s="9" t="s">
@@ -3379,7 +3442,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
+      <c r="A24" s="39"/>
       <c r="B24" s="9" t="s">
         <v>48</v>
       </c>
@@ -3391,7 +3454,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
+      <c r="A25" s="39"/>
       <c r="B25" s="9" t="s">
         <v>46</v>
       </c>
@@ -3403,7 +3466,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="9" t="s">
         <v>54</v>
       </c>
@@ -3415,7 +3478,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
+      <c r="A27" s="39"/>
       <c r="B27" s="9" t="s">
         <v>57</v>
       </c>
@@ -3427,7 +3490,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
+      <c r="A28" s="39"/>
       <c r="B28" s="9" t="s">
         <v>58</v>
       </c>
@@ -3439,7 +3502,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
+      <c r="A29" s="39"/>
       <c r="B29" s="9" t="s">
         <v>60</v>
       </c>
@@ -3451,7 +3514,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="9" t="s">
         <v>61</v>
       </c>
@@ -3463,7 +3526,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
+      <c r="A31" s="39"/>
       <c r="B31" s="12" t="s">
         <v>63</v>
       </c>

--- a/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/resource/pageobject/Object.xlsx
+++ b/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/resource/pageobject/Object.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="225">
   <si>
     <r>
       <rPr>
@@ -875,8 +875,16 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>//android.view.View[@content-desc="</t>
+    <t>婴儿沐浴露数量</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>净营业额</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[contains(@content-desc,"</t>
     </r>
     <r>
       <rPr>
@@ -886,7 +894,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>婴儿沐浴露</t>
+      <t>净营业额</t>
     </r>
     <r>
       <rPr>
@@ -895,21 +903,13 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>"]/../following-sibling::android.view.View//android.widget.EditText[@resource-id='quantity_']</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>婴儿沐浴露数量</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>净营业额</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//android.view.View[contains(@content-desc,"</t>
+      <t>")]/preceding-sibling::android.view.View</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[@content-desc="</t>
     </r>
     <r>
       <rPr>
@@ -919,7 +919,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>净营业额</t>
+      <t>销售指数</t>
     </r>
     <r>
       <rPr>
@@ -928,8 +928,52 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>")]/preceding-sibling::android.view.View</t>
-    </r>
+      <t>"]/preceding-sibling::android.view.View</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售指数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.Button[@content-desc="去支付"]/../preceding-sibling::android.view.View</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>多个验证</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存为常用购货人</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>多笔支付</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>本次支付金额</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>paymentAmount4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看详情</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.view.View[contains(@content-desc,"查看详情")]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>已支付金额</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -944,7 +988,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>销售指数</t>
+      <t>已支付金额</t>
     </r>
     <r>
       <rPr>
@@ -953,52 +997,12 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>"]/preceding-sibling::android.view.View</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售指数</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.Button[@content-desc="去支付"]/../preceding-sibling::android.view.View</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>多个验证</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存为常用购货人</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>多笔支付</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>本次支付金额</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>paymentAmount4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看详情</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.view.View[contains(@content-desc,"查看详情")]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>已支付金额</t>
+      <t>"]/following-sibling::android.view.View</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余应付</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1013,7 +1017,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>已支付金额</t>
+      <t>剩余应付</t>
     </r>
     <r>
       <rPr>
@@ -1027,12 +1031,8 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>剩余应付</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//android.view.View[@content-desc="</t>
+    <r>
+      <t>//android.view.View[contains(@content-desc,"</t>
     </r>
     <r>
       <rPr>
@@ -1042,7 +1042,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>剩余应付</t>
+      <t>订单操作人</t>
     </r>
     <r>
       <rPr>
@@ -1051,8 +1051,12 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>"]/following-sibling::android.view.View</t>
-    </r>
+      <t>")]</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单操作人</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1067,7 +1071,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>订单操作人</t>
+      <t>购货渠道</t>
     </r>
     <r>
       <rPr>
@@ -1081,7 +1085,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>订单操作人</t>
+    <t>购货渠道</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1096,7 +1100,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>购货渠道</t>
+      <t>订单状态</t>
     </r>
     <r>
       <rPr>
@@ -1110,7 +1114,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>购货渠道</t>
+    <t>订单状态</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1125,7 +1129,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>订单状态</t>
+      <t>多笔支付</t>
     </r>
     <r>
       <rPr>
@@ -1139,7 +1143,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>订单状态</t>
+    <t>付款信息</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1154,7 +1158,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>多笔支付</t>
+      <t>购货总额</t>
     </r>
     <r>
       <rPr>
@@ -1163,17 +1167,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>")]</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>付款信息</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//android.view.View[contains(@content-desc,"</t>
+      <t>")]/following-sibling::android.view.View[contains(@content-desc,"</t>
     </r>
     <r>
       <rPr>
@@ -1183,7 +1177,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>购货总额</t>
+      <t>扣减悦享分</t>
     </r>
     <r>
       <rPr>
@@ -1192,7 +1186,29 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>")]/following-sibling::android.view.View[contains(@content-desc,"</t>
+      <t>")]</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>运费</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>多笔支付</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>多种金额</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.ListView[@resource-id='selectFrequentBuyerList']/android.view.View[1]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.widget.TextView[@content-desc="</t>
     </r>
     <r>
       <rPr>
@@ -1202,7 +1218,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>扣减悦享分</t>
+      <t>搜索</t>
     </r>
     <r>
       <rPr>
@@ -1211,29 +1227,57 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>")]</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>运费</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>多笔支付</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>多种金额</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.ListView[@resource-id='selectFrequentBuyerList']/android.view.View[1]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//android.widget.TextView[@content-desc="</t>
+      <t>"]</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.mm:id/hx</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.mm:id/l7</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一步</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.mm:id/ak_</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.LinearLayout[@resource-id='com.tencent.mm:id/cb_']/android.widget.EditText</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.mm:id/alk</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>不检查通讯录</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>我知道了1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(//android.widget.Button[@content-desc='</t>
     </r>
     <r>
       <rPr>
@@ -1243,7 +1287,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>搜索</t>
+      <t>我知道了</t>
     </r>
     <r>
       <rPr>
@@ -1252,57 +1296,13 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>"]</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.tencent.mm:id/hx</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.tencent.mm:id/l7</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>下一步</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.tencent.mm:id/ak_</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.LinearLayout[@resource-id='com.tencent.mm:id/cb_']/android.widget.EditText</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.tencent.mm:id/alk</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>不检查通讯录</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>我知道了1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>(//android.widget.Button[@content-desc='</t>
+      <t>'])[2]</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.widget.Button[@content-desc='</t>
     </r>
     <r>
       <rPr>
@@ -1321,13 +1321,37 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>'])[2]</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//android.widget.Button[@content-desc='</t>
+      <t>']</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.EditText[@resource-id='qtyInput']/following-sibling::android.widget.Button</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即购买</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即购买</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.RelativeLayout[@resource-id='com.tencent.mm:id/cj0']/android.widget.RelativeLayout</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次支付</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入购物车</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.widget.Button[@content-desc="</t>
     </r>
     <r>
       <rPr>
@@ -1337,7 +1361,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>我知道了</t>
+      <t>搜索</t>
     </r>
     <r>
       <rPr>
@@ -1346,37 +1370,13 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>']</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.EditText[@resource-id='qtyInput']/following-sibling::android.widget.Button</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>立即购买</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>立即购买</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.RelativeLayout[@resource-id='com.tencent.mm:id/cj0']/android.widget.RelativeLayout</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>再次支付</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>加入购物车</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//android.widget.Button[@content-desc="</t>
+      <t>"]/preceding-sibling::android.widget.EditText</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[contains(@content-desc, "</t>
     </r>
     <r>
       <rPr>
@@ -1386,7 +1386,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>搜索</t>
+      <t>购货卡号</t>
     </r>
     <r>
       <rPr>
@@ -1395,13 +1395,12 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>"]/preceding-sibling::android.widget.EditText</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//android.view.View[contains(@content-desc, "</t>
+      <t>")]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[contains(@content-desc,"</t>
     </r>
     <r>
       <rPr>
@@ -1411,7 +1410,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>购货卡号</t>
+      <t>购货总额</t>
     </r>
     <r>
       <rPr>
@@ -1422,10 +1421,11 @@
       </rPr>
       <t>")]</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>//android.view.View[contains(@content-desc,"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(//android.view.View[contains(@content-desc,"</t>
     </r>
     <r>
       <rPr>
@@ -1444,13 +1444,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>")]</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>(//android.view.View[contains(@content-desc,"</t>
+      <t>")]/following-sibling::android.view.View[contains(@content-desc,"</t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1454,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>购货总额</t>
+      <t>运费</t>
     </r>
     <r>
       <rPr>
@@ -1469,7 +1463,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>")]/following-sibling::android.view.View[contains(@content-desc,"</t>
+      <t>")])[1]</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.mm:id/dr3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[@content-desc="</t>
     </r>
     <r>
       <rPr>
@@ -1479,7 +1483,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>运费</t>
+      <t>商品清单</t>
     </r>
     <r>
       <rPr>
@@ -1488,17 +1492,13 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>")])[1]</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.tencent.mm:id/dr3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//android.view.View[@content-desc="</t>
+      <t>"]/../following-sibling::android.widget.ListView/android.view.View/android.view.View//android.view.View</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[contains(@content-desc,"</t>
     </r>
     <r>
       <rPr>
@@ -1508,7 +1508,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>商品清单</t>
+      <t>您已成功支付</t>
     </r>
     <r>
       <rPr>
@@ -1517,13 +1517,41 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>"]/../following-sibling::android.widget.ListView/android.view.View/android.view.View//android.view.View</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//android.view.View[contains(@content-desc,"</t>
+      <t>")]</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.Image[@content-desc="order-fail"]/following-sibling::android.view.View</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.mm:id/cix</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用购货人输入框</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用购货人按钮</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc="选择常用购货人"]/../following-sibling::android.view.View//android.widget.EditText</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>(//android.view.View[@content-desc="确定"])[2]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定常用购货人</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[@content-desc="</t>
     </r>
     <r>
       <rPr>
@@ -1533,7 +1561,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>您已成功支付</t>
+      <t>确定</t>
     </r>
     <r>
       <rPr>
@@ -1542,41 +1570,21 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>")]</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.Image[@content-desc="order-fail"]/following-sibling::android.view.View</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.tencent.mm:id/cix</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>常用购货人输入框</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>常用购货人按钮</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.view.View[@content-desc="选择常用购货人"]/../following-sibling::android.view.View//android.widget.EditText</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>(//android.view.View[@content-desc="确定"])[2]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定常用购货人</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//android.view.View[@content-desc="</t>
+      <t>"]</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定更改常用购货人</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.view.View[contains(@content-desc,"javascript")]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[contains(@content-desc,"</t>
     </r>
     <r>
       <rPr>
@@ -1586,7 +1594,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>确定</t>
+      <t>婴儿洗发沐浴露</t>
     </r>
     <r>
       <rPr>
@@ -1595,12 +1603,33 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>"]</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定更改常用购货人</t>
+      <t>")]</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[contains(@content-desc,"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>婴儿洗发沐浴露</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>")]/../following-sibling::android.view.View//android.widget.EditText[@resource-id='quantity_']</t>
+    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2291,8 +2320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -2329,10 +2358,10 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="30"/>
       <c r="B3" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -2341,10 +2370,10 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="30"/>
       <c r="B4" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2353,10 +2382,10 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="30"/>
       <c r="B5" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>91</v>
@@ -2365,10 +2394,10 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="30"/>
       <c r="B6" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
@@ -2377,10 +2406,10 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="30"/>
       <c r="B7" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
@@ -2394,7 +2423,7 @@
         <v>88</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>91</v>
@@ -2406,7 +2435,7 @@
         <v>90</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>5</v>
@@ -2417,7 +2446,7 @@
         <v>104</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>5</v>
@@ -2452,10 +2481,10 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="21"/>
       <c r="B13" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>91</v>
@@ -2467,7 +2496,7 @@
         <v>94</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>91</v>
@@ -2492,11 +2521,11 @@
       <c r="B16" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>95</v>
+      <c r="C16" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -2505,7 +2534,7 @@
         <v>110</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>91</v>
@@ -2550,7 +2579,7 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="26"/>
       <c r="B21" s="27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C21" s="27" t="s">
         <v>144</v>
@@ -2562,10 +2591,10 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>91</v>
@@ -2574,10 +2603,10 @@
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="26"/>
       <c r="B23" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>95</v>
@@ -2586,10 +2615,10 @@
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="26"/>
       <c r="B24" s="27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>91</v>
@@ -2598,10 +2627,10 @@
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="26"/>
       <c r="B25" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>221</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>91</v>
@@ -2613,7 +2642,7 @@
         <v>151</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>91</v>
@@ -2660,11 +2689,11 @@
       <c r="B30" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>95</v>
+      <c r="C30" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -2687,7 +2716,7 @@
         <v>111</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>112</v>
@@ -2701,7 +2730,7 @@
         <v>45</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>95</v>
@@ -2710,10 +2739,10 @@
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="20"/>
       <c r="B34" s="27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>95</v>
@@ -2737,7 +2766,7 @@
         <v>113</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>112</v>
@@ -2746,10 +2775,10 @@
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="20"/>
       <c r="B37" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>155</v>
+        <v>224</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>91</v>
@@ -2770,10 +2799,10 @@
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
       <c r="B39" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>91</v>
@@ -2782,10 +2811,10 @@
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
       <c r="B40" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>91</v>
@@ -2797,7 +2826,7 @@
         <v>69</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D41" s="18" t="s">
         <v>91</v>
@@ -2806,10 +2835,10 @@
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="20"/>
       <c r="B42" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D42" s="18" t="s">
         <v>91</v>
@@ -2821,7 +2850,7 @@
         <v>36</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D43" s="18" t="s">
         <v>91</v>
@@ -2868,10 +2897,10 @@
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="20"/>
       <c r="B47" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D47" s="18" t="s">
         <v>91</v>
@@ -2920,10 +2949,10 @@
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="20"/>
       <c r="B51" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>95</v>
@@ -2932,13 +2961,13 @@
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="20"/>
       <c r="B52" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C52" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="D52" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -2954,10 +2983,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B54" s="31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C54" s="31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>95</v>
@@ -2976,10 +3005,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B56" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="C56" s="27" t="s">
         <v>168</v>
-      </c>
-      <c r="C56" s="27" t="s">
-        <v>169</v>
       </c>
       <c r="D56" s="18" t="s">
         <v>91</v>
@@ -3001,7 +3030,7 @@
         <v>126</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D58" s="18" t="s">
         <v>108</v>
@@ -3012,7 +3041,7 @@
         <v>127</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>133</v>
@@ -3023,7 +3052,7 @@
         <v>128</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>133</v>
@@ -3034,7 +3063,7 @@
         <v>129</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D61" s="18" t="s">
         <v>91</v>
@@ -3045,7 +3074,7 @@
         <v>130</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D62" s="18" t="s">
         <v>112</v>
@@ -3053,10 +3082,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B63" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="D63" s="18" t="s">
         <v>91</v>
@@ -3064,10 +3093,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B64" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="D64" s="18" t="s">
         <v>91</v>
@@ -3075,10 +3104,10 @@
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D65" s="18" t="s">
         <v>91</v>
@@ -3086,10 +3115,10 @@
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B66" s="27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D66" s="18" t="s">
         <v>91</v>
@@ -3097,10 +3126,10 @@
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B67" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D67" s="18" t="s">
         <v>91</v>
@@ -3108,10 +3137,10 @@
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B68" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D68" s="18" t="s">
         <v>91</v>
@@ -3119,10 +3148,10 @@
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B69" s="27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D69" s="18" t="s">
         <v>91</v>

--- a/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/resource/pageobject/Object.xlsx
+++ b/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/resource/pageobject/Object.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="226">
   <si>
     <r>
       <rPr>
@@ -538,10 +538,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>个人护理</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>商品输入框</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -780,10 +776,6 @@
   </si>
   <si>
     <t>更改</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>(//android.view.View[@content-desc="*"])[1]</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -822,19 +814,11 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>//android.view.View[contains(@content-desc,"当前购货人")]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>当前购货人1</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>//android.widget.Button[contains(@content-desc,'m')]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.view.View[@content-desc='t ']</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1326,10 +1310,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>//android.widget.EditText[@resource-id='qtyInput']/following-sibling::android.widget.Button</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>立即购买</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1608,6 +1588,26 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>quantity_</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录微信</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.mm:id/d1w</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.view.View[contains(@content-desc,"48678350")]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.EditText[@resource-id='qtyInput']/following-sibling::android.widget.Button</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>//android.view.View[contains(@content-desc,"</t>
     </r>
@@ -1619,7 +1619,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>婴儿洗发沐浴露</t>
+      <t>当前购货人</t>
     </r>
     <r>
       <rPr>
@@ -1628,7 +1628,32 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>")]/../following-sibling::android.view.View//android.widget.EditText[@resource-id='quantity_']</t>
+      <t>")]/following-sibling::android.view.View</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[contains(@content-desc,"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>更改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>")]</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -2318,10 +2343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV69"/>
+  <dimension ref="A1:IV70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -2358,10 +2383,10 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="30"/>
       <c r="B3" s="27" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -2370,10 +2395,10 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="30"/>
       <c r="B4" s="27" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2382,171 +2407,171 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="30"/>
       <c r="B5" s="27" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>91</v>
+        <v>187</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="30"/>
       <c r="B6" s="27" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>5</v>
+        <v>189</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="30"/>
       <c r="B7" s="27" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="30"/>
+      <c r="B8" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B9" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D8" s="18" t="s">
+      <c r="C9" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" s="18" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="37"/>
-      <c r="B9" s="17" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="37"/>
+      <c r="B10" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="17" t="s">
-        <v>104</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
+      <c r="B11" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B12" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="D11" s="18" t="s">
+      <c r="C12" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="20"/>
-      <c r="B12" s="17" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="20"/>
+      <c r="B13" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C13" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D13" s="18" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="21"/>
-      <c r="B13" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="21"/>
       <c r="B14" s="27" t="s">
-        <v>94</v>
+        <v>193</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B16" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="C16" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="23"/>
-      <c r="B16" s="17" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="23"/>
+      <c r="B17" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
-      <c r="B17" s="17" t="s">
-        <v>110</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="26"/>
-      <c r="B18" s="27" t="s">
-        <v>140</v>
+      <c r="A18" s="21"/>
+      <c r="B18" s="17" t="s">
+        <v>109</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>149</v>
+        <v>201</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>91</v>
@@ -2555,10 +2580,10 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="26"/>
       <c r="B19" s="27" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>91</v>
@@ -2567,10 +2592,10 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="26"/>
       <c r="B20" s="27" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>142</v>
+        <v>225</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>91</v>
@@ -2579,58 +2604,58 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="26"/>
       <c r="B21" s="27" t="s">
-        <v>216</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>95</v>
+        <v>141</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>91</v>
+        <v>211</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="26"/>
       <c r="B23" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>95</v>
+        <v>210</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="26"/>
       <c r="B24" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>91</v>
+        <v>158</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="26"/>
       <c r="B25" s="27" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>91</v>
@@ -2639,10 +2664,10 @@
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="26"/>
       <c r="B26" s="27" t="s">
-        <v>151</v>
+        <v>214</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>91</v>
@@ -2651,10 +2676,10 @@
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="26"/>
       <c r="B27" s="27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>91</v>
@@ -2663,13 +2688,13 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="26"/>
       <c r="B28" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>95</v>
+        <v>144</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -2678,71 +2703,71 @@
         <v>148</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>91</v>
+        <v>64</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="23"/>
-      <c r="B30" s="17" t="s">
-        <v>100</v>
+      <c r="A30" s="26"/>
+      <c r="B30" s="27" t="s">
+        <v>145</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="23"/>
+      <c r="B31" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="C31" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C32" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="29"/>
-      <c r="B32" s="17" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="29"/>
+      <c r="B33" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D33" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C32" s="1" t="s">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="27" t="s">
         <v>200</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="20"/>
-      <c r="B34" s="27" t="s">
-        <v>202</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>201</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>95</v>
@@ -2750,11 +2775,11 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="20"/>
-      <c r="B35" s="17" t="s">
-        <v>48</v>
+      <c r="B35" s="27" t="s">
+        <v>197</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>48</v>
+        <v>196</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>95</v>
@@ -2762,47 +2787,47 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="20"/>
-      <c r="B36" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>112</v>
+      <c r="B36" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="20"/>
-      <c r="B37" s="27" t="s">
-        <v>155</v>
+      <c r="B37" s="32" t="s">
+        <v>112</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="21"/>
-      <c r="B38" s="9" t="s">
-        <v>114</v>
+      <c r="A38" s="20"/>
+      <c r="B38" s="27" t="s">
+        <v>151</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>91</v>
+        <v>219</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
       <c r="B39" s="9" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>157</v>
+        <v>114</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>91</v>
@@ -2811,22 +2836,22 @@
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
       <c r="B40" s="9" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="20"/>
-      <c r="B41" s="27" t="s">
-        <v>69</v>
+      <c r="A41" s="21"/>
+      <c r="B41" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>208</v>
+        <v>154</v>
       </c>
       <c r="D41" s="18" t="s">
         <v>91</v>
@@ -2835,10 +2860,10 @@
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="20"/>
       <c r="B42" s="27" t="s">
-        <v>182</v>
+        <v>69</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D42" s="18" t="s">
         <v>91</v>
@@ -2847,48 +2872,48 @@
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="20"/>
       <c r="B43" s="27" t="s">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="D43" s="18" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="21"/>
-      <c r="B44" s="9" t="s">
-        <v>153</v>
+      <c r="A44" s="20"/>
+      <c r="B44" s="27" t="s">
+        <v>36</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="D44" s="18" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="B45" s="17" t="s">
+      <c r="A45" s="21"/>
+      <c r="B45" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B46" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="27" t="s">
+      <c r="C46" s="27" t="s">
         <v>46</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="20"/>
-      <c r="B46" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>101</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>95</v>
@@ -2897,107 +2922,108 @@
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="20"/>
       <c r="B47" s="9" t="s">
-        <v>161</v>
+        <v>101</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="D47" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="20"/>
+      <c r="B48" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D48" s="18" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="19" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B49" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="C49" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D49" s="18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="21"/>
+      <c r="B50" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="D48" s="18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="21"/>
-      <c r="B49" s="17" t="s">
+      <c r="C50" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="D50" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="D49" s="18" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="B50" s="17" t="s">
+      <c r="B51" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D50" s="18" t="s">
+      <c r="C51" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D51" s="18" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="20"/>
-      <c r="B51" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="20"/>
       <c r="B52" s="9" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>166</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B53" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="C53" s="24" t="s">
-        <v>123</v>
+      <c r="A53" s="20"/>
+      <c r="B53" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B54" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="C54" s="31" t="s">
-        <v>204</v>
+      <c r="B54" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>122</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B55" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="C55" s="27" t="s">
-        <v>139</v>
+      <c r="B55" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="C55" s="31" t="s">
+        <v>199</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>95</v>
@@ -3005,21 +3031,21 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B56" s="27" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="C56" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="D56" s="18" t="s">
-        <v>91</v>
+        <v>138</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B57" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>125</v>
+      <c r="B57" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C57" s="27" t="s">
+        <v>164</v>
       </c>
       <c r="D57" s="18" t="s">
         <v>91</v>
@@ -3027,76 +3053,76 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B58" s="17" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>203</v>
+        <v>124</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B59" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>133</v>
+        <v>198</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B60" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B61" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D61" s="18" t="s">
-        <v>91</v>
+        <v>205</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B62" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B63" s="27" t="s">
-        <v>169</v>
+      <c r="B63" s="17" t="s">
+        <v>129</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B64" s="27" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D64" s="18" t="s">
         <v>91</v>
@@ -3104,10 +3130,10 @@
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" s="27" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D65" s="18" t="s">
         <v>91</v>
@@ -3115,10 +3141,10 @@
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B66" s="27" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D66" s="18" t="s">
         <v>91</v>
@@ -3126,10 +3152,10 @@
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B67" s="27" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D67" s="18" t="s">
         <v>91</v>
@@ -3137,10 +3163,10 @@
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B68" s="27" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D68" s="18" t="s">
         <v>91</v>
@@ -3148,19 +3174,30 @@
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B69" s="27" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="D69" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B70" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D70" s="18" t="s">
         <v>91</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3376,7 +3413,7 @@
         <v>28</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>7</v>
@@ -3388,7 +3425,7 @@
         <v>29</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>7</v>
@@ -3512,7 +3549,7 @@
         <v>57</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>7</v>
@@ -3524,7 +3561,7 @@
         <v>58</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>7</v>
@@ -3753,7 +3790,7 @@
         <v>103</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>7</v>

--- a/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/resource/pageobject/Object.xlsx
+++ b/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/resource/pageobject/Object.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="234">
   <si>
     <r>
       <rPr>
@@ -606,50 +606,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>//android.widget.Button[@content-desc="</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>去支付</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>"]/../preceding-sibling::android.view.View[contains(@content-desc,"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>订单金额</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>")]</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>提交成功</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -949,20 +905,16 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>查看详情</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.view.View[contains(@content-desc,"查看详情")]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>已支付金额</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>//android.view.View[@content-desc="</t>
+    <t>剩余应付</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[contains(@content-desc,"</t>
     </r>
     <r>
       <rPr>
@@ -972,26 +924,26 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>已支付金额</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>"]/following-sibling::android.view.View</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>剩余应付</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//android.view.View[@content-desc="</t>
+      <t>订单操作人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>")]</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单操作人</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[contains(@content-desc,"</t>
     </r>
     <r>
       <rPr>
@@ -1001,17 +953,21 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>剩余应付</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>"]/following-sibling::android.view.View</t>
-    </r>
+      <t>购货渠道</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>")]</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>购货渠道</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1026,7 +982,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>订单操作人</t>
+      <t>订单状态</t>
     </r>
     <r>
       <rPr>
@@ -1040,7 +996,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>订单操作人</t>
+    <t>订单状态</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1055,7 +1011,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>购货渠道</t>
+      <t>多笔支付</t>
     </r>
     <r>
       <rPr>
@@ -1069,7 +1025,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>购货渠道</t>
+    <t>付款信息</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1084,26 +1040,16 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>订单状态</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>")]</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单状态</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//android.view.View[contains(@content-desc,"</t>
+      <t>购货总额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>")]/following-sibling::android.view.View[contains(@content-desc,"</t>
     </r>
     <r>
       <rPr>
@@ -1113,7 +1059,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>多笔支付</t>
+      <t>扣减悦享分</t>
     </r>
     <r>
       <rPr>
@@ -1127,12 +1073,24 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>付款信息</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//android.view.View[contains(@content-desc,"</t>
+    <t>运费</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>多笔支付</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>多种金额</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.ListView[@resource-id='selectFrequentBuyerList']/android.view.View[1]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.widget.TextView[@content-desc="</t>
     </r>
     <r>
       <rPr>
@@ -1142,16 +1100,66 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>购货总额</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>")]/following-sibling::android.view.View[contains(@content-desc,"</t>
+      <t>搜索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"]</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.mm:id/hx</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.mm:id/l7</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一步</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.mm:id/ak_</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.LinearLayout[@resource-id='com.tencent.mm:id/cb_']/android.widget.EditText</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.mm:id/alk</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>不检查通讯录</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>我知道了1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(//android.widget.Button[@content-desc='</t>
     </r>
     <r>
       <rPr>
@@ -1161,38 +1169,22 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>扣减悦享分</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>")]</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>运费</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>多笔支付</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>多种金额</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.ListView[@resource-id='selectFrequentBuyerList']/android.view.View[1]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//android.widget.TextView[@content-desc="</t>
+      <t>我知道了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'])[2]</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.widget.Button[@content-desc='</t>
     </r>
     <r>
       <rPr>
@@ -1202,66 +1194,38 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>搜索</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>"]</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.tencent.mm:id/hx</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.tencent.mm:id/l7</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>下一步</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.tencent.mm:id/ak_</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.LinearLayout[@resource-id='com.tencent.mm:id/cb_']/android.widget.EditText</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.tencent.mm:id/alk</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>不检查通讯录</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>我知道了1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>(//android.widget.Button[@content-desc='</t>
+      <t>我知道了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>']</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即购买</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即购买</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.RelativeLayout[@resource-id='com.tencent.mm:id/cj0']/android.widget.RelativeLayout</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入购物车</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.widget.Button[@content-desc="</t>
     </r>
     <r>
       <rPr>
@@ -1271,22 +1235,22 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>我知道了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>'])[2]</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//android.widget.Button[@content-desc='</t>
+      <t>搜索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"]/preceding-sibling::android.widget.EditText</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[contains(@content-desc, "</t>
     </r>
     <r>
       <rPr>
@@ -1296,42 +1260,21 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>我知道了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>']</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>立即购买</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>立即购买</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.RelativeLayout[@resource-id='com.tencent.mm:id/cj0']/android.widget.RelativeLayout</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>再次支付</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>加入购物车</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//android.widget.Button[@content-desc="</t>
+      <t>购货卡号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>")]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[contains(@content-desc,"</t>
     </r>
     <r>
       <rPr>
@@ -1341,22 +1284,22 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>搜索</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>"]/preceding-sibling::android.widget.EditText</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//android.view.View[contains(@content-desc, "</t>
+      <t>购货总额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>")]</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(//android.view.View[contains(@content-desc,"</t>
     </r>
     <r>
       <rPr>
@@ -1366,21 +1309,16 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>购货卡号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>")]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>//android.view.View[contains(@content-desc,"</t>
+      <t>购货总额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>")]/following-sibling::android.view.View[contains(@content-desc,"</t>
     </r>
     <r>
       <rPr>
@@ -1390,22 +1328,26 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>购货总额</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>")]</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>(//android.view.View[contains(@content-desc,"</t>
+      <t>运费</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>")])[1]</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.mm:id/dr3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[@content-desc="</t>
     </r>
     <r>
       <rPr>
@@ -1415,16 +1357,22 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>购货总额</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>")]/following-sibling::android.view.View[contains(@content-desc,"</t>
+      <t>商品清单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"]/../following-sibling::android.widget.ListView/android.view.View/android.view.View//android.view.View</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[contains(@content-desc,"</t>
     </r>
     <r>
       <rPr>
@@ -1434,21 +1382,45 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>运费</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>")])[1]</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.tencent.mm:id/dr3</t>
+      <t>您已成功支付</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>")]</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.Image[@content-desc="order-fail"]/following-sibling::android.view.View</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.mm:id/cix</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用购货人输入框</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用购货人按钮</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc="选择常用购货人"]/../following-sibling::android.view.View//android.widget.EditText</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>(//android.view.View[@content-desc="确定"])[2]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定常用购货人</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1463,17 +1435,25 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>商品清单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>"]/../following-sibling::android.widget.ListView/android.view.View/android.view.View//android.view.View</t>
-    </r>
+      <t>确定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"]</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定更改常用购货人</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.view.View[contains(@content-desc,"javascript")]</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1488,7 +1468,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>您已成功支付</t>
+      <t>婴儿洗发沐浴露</t>
     </r>
     <r>
       <rPr>
@@ -1502,36 +1482,28 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>//android.widget.Image[@content-desc="order-fail"]/following-sibling::android.view.View</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.tencent.mm:id/cix</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>常用购货人输入框</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>常用购货人按钮</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.view.View[@content-desc="选择常用购货人"]/../following-sibling::android.view.View//android.widget.EditText</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>(//android.view.View[@content-desc="确定"])[2]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定常用购货人</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//android.view.View[@content-desc="</t>
+    <t>quantity_</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录微信</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.mm:id/d1w</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.view.View[contains(@content-desc,"48678350")]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.EditText[@resource-id='qtyInput']/following-sibling::android.widget.Button</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[contains(@content-desc,"</t>
     </r>
     <r>
       <rPr>
@@ -1541,25 +1513,17 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>确定</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>"]</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定更改常用购货人</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.view.View[contains(@content-desc,"javascript")]</t>
+      <t>当前购货人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>")]/following-sibling::android.view.View</t>
+    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1574,7 +1538,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>婴儿洗发沐浴露</t>
+      <t>更改</t>
     </r>
     <r>
       <rPr>
@@ -1588,23 +1552,15 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>quantity_</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录微信</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.tencent.mm:id/d1w</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.view.View[contains(@content-desc,"48678350")]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.EditText[@resource-id='qtyInput']/following-sibling::android.widget.Button</t>
+    <t>查看订单</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>cboxClose</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单详情</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1619,22 +1575,22 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>当前购货人</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>")]/following-sibling::android.view.View</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//android.view.View[contains(@content-desc,"</t>
+      <t>查看订单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>")]</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(//android.view.View[@content-desc="</t>
     </r>
     <r>
       <rPr>
@@ -1644,7 +1600,51 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>更改</t>
+      <t>详情</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"])[1]</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.widget.Button[@content-desc="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>去支付</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"]/../preceding-sibling::android.view.View[contains(@content-desc,"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订单金额</t>
     </r>
     <r>
       <rPr>
@@ -1655,6 +1655,101 @@
       </rPr>
       <t>")]</t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[@content-desc="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已支付</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"]/preceding-sibling::android.view.View</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[@content-desc="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>剩余应付金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"]/preceding-sibling::android.view.View</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭订单详情</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次支付</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(//android.widget.Button[@content-desc="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>再次支付</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"])[1]</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部订单</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付记录</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.view.View[contains(@content-desc,"共有")]</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1917,7 +2012,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2008,9 +2103,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -2343,10 +2435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV70"/>
+  <dimension ref="A1:IV74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -2359,12 +2451,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -2383,10 +2475,10 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="30"/>
       <c r="B3" s="27" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -2395,10 +2487,10 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="30"/>
       <c r="B4" s="27" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2407,10 +2499,10 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="30"/>
       <c r="B5" s="27" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2419,10 +2511,10 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="30"/>
       <c r="B6" s="27" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>91</v>
@@ -2431,10 +2523,10 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="30"/>
       <c r="B7" s="27" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
@@ -2443,36 +2535,36 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="30"/>
       <c r="B8" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="35" t="s">
         <v>88</v>
       </c>
       <c r="B9" s="27" t="s">
         <v>88</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="37"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="17" t="s">
         <v>90</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>5</v>
@@ -2483,7 +2575,7 @@
         <v>104</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>5</v>
@@ -2497,7 +2589,7 @@
         <v>105</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>106</v>
@@ -2518,10 +2610,10 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="21"/>
       <c r="B14" s="27" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>91</v>
@@ -2533,7 +2625,7 @@
         <v>94</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>91</v>
@@ -2559,7 +2651,7 @@
         <v>89</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>91</v>
@@ -2571,7 +2663,7 @@
         <v>109</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>91</v>
@@ -2580,10 +2672,10 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="26"/>
       <c r="B19" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>91</v>
@@ -2592,10 +2684,10 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="26"/>
       <c r="B20" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>91</v>
@@ -2604,10 +2696,10 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="26"/>
       <c r="B21" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>91</v>
@@ -2616,10 +2708,10 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="27" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>95</v>
@@ -2628,10 +2720,10 @@
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="26"/>
       <c r="B23" s="27" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>91</v>
@@ -2640,10 +2732,10 @@
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="26"/>
       <c r="B24" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>95</v>
@@ -2652,10 +2744,10 @@
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="26"/>
       <c r="B25" s="27" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>91</v>
@@ -2664,10 +2756,10 @@
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="26"/>
       <c r="B26" s="27" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>91</v>
@@ -2676,10 +2768,10 @@
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="26"/>
       <c r="B27" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>91</v>
@@ -2688,10 +2780,10 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="26"/>
       <c r="B28" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>91</v>
@@ -2700,7 +2792,7 @@
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="26"/>
       <c r="B29" s="27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C29" s="27" t="s">
         <v>64</v>
@@ -2712,10 +2804,10 @@
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="26"/>
       <c r="B30" s="27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>91</v>
@@ -2727,7 +2819,7 @@
         <v>100</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>91</v>
@@ -2753,7 +2845,7 @@
         <v>110</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D33" s="18" t="s">
         <v>111</v>
@@ -2767,7 +2859,7 @@
         <v>45</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>95</v>
@@ -2776,10 +2868,10 @@
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="20"/>
       <c r="B35" s="27" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>95</v>
@@ -2799,11 +2891,11 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="20"/>
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="31" t="s">
         <v>112</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>111</v>
@@ -2812,10 +2904,10 @@
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="20"/>
       <c r="B38" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>5</v>
@@ -2836,10 +2928,10 @@
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
       <c r="B40" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>91</v>
@@ -2848,10 +2940,10 @@
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
       <c r="B41" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D41" s="18" t="s">
         <v>91</v>
@@ -2863,7 +2955,7 @@
         <v>69</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D42" s="18" t="s">
         <v>91</v>
@@ -2872,10 +2964,10 @@
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="20"/>
       <c r="B43" s="27" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D43" s="18" t="s">
         <v>91</v>
@@ -2887,7 +2979,7 @@
         <v>36</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D44" s="18" t="s">
         <v>91</v>
@@ -2896,10 +2988,10 @@
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
       <c r="B45" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="D45" s="18" t="s">
         <v>91</v>
@@ -2934,10 +3026,10 @@
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="20"/>
       <c r="B48" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D48" s="18" t="s">
         <v>91</v>
@@ -2951,7 +3043,7 @@
         <v>117</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>118</v>
+        <v>225</v>
       </c>
       <c r="D49" s="18" t="s">
         <v>108</v>
@@ -2960,10 +3052,10 @@
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
       <c r="B50" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" s="17" t="s">
         <v>119</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>120</v>
       </c>
       <c r="D50" s="18" t="s">
         <v>111</v>
@@ -2971,13 +3063,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B51" s="17" t="s">
         <v>60</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D51" s="18" t="s">
         <v>91</v>
@@ -2986,10 +3078,10 @@
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="20"/>
       <c r="B52" s="9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>95</v>
@@ -2998,32 +3090,32 @@
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="20"/>
       <c r="B53" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C53" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="D53" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B54" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B55" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="C55" s="31" t="s">
-        <v>199</v>
+      <c r="B55" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>137</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>95</v>
@@ -3031,76 +3123,76 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B56" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="C56" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>95</v>
+        <v>220</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B57" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="C57" s="27" t="s">
-        <v>164</v>
+        <v>222</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="D57" s="18" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B58" s="17" t="s">
-        <v>123</v>
+      <c r="B58" s="27" t="s">
+        <v>228</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D58" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B59" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D59" s="18" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B59" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D59" s="18" t="s">
-        <v>108</v>
-      </c>
-    </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B60" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>209</v>
+      <c r="B60" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="C60" s="27" t="s">
+        <v>231</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B61" s="17" t="s">
-        <v>127</v>
+      <c r="B61" s="27" t="s">
+        <v>232</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>132</v>
+        <v>233</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B62" s="17" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>207</v>
+        <v>123</v>
       </c>
       <c r="D62" s="18" t="s">
         <v>91</v>
@@ -3108,65 +3200,65 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B63" s="17" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B64" s="27" t="s">
-        <v>165</v>
+      <c r="B64" s="17" t="s">
+        <v>125</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D64" s="18" t="s">
-        <v>91</v>
+        <v>203</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B65" s="27" t="s">
-        <v>167</v>
+      <c r="B65" s="17" t="s">
+        <v>126</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D65" s="18" t="s">
-        <v>91</v>
+        <v>199</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B66" s="27" t="s">
-        <v>170</v>
+      <c r="B66" s="17" t="s">
+        <v>127</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="D66" s="18" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B67" s="27" t="s">
-        <v>172</v>
+      <c r="B67" s="17" t="s">
+        <v>128</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B68" s="27" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="D68" s="18" t="s">
         <v>91</v>
@@ -3174,10 +3266,10 @@
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B69" s="27" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>175</v>
+        <v>227</v>
       </c>
       <c r="D69" s="18" t="s">
         <v>91</v>
@@ -3185,12 +3277,56 @@
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B70" s="27" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="D70" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B71" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D71" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B72" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D72" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B73" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D73" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B74" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D74" s="18" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3222,12 +3358,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -3244,7 +3380,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="42" t="s">
         <v>39</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -3258,7 +3394,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="4" t="s">
         <v>44</v>
       </c>
@@ -3270,7 +3406,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
@@ -3282,7 +3418,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="44" t="s">
         <v>96</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -3296,7 +3432,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
@@ -3308,7 +3444,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
@@ -3320,7 +3456,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
@@ -3332,7 +3468,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="4" t="s">
         <v>56</v>
       </c>
@@ -3344,7 +3480,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
@@ -3356,7 +3492,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="47" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -3370,7 +3506,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="6" t="s">
         <v>24</v>
       </c>
@@ -3382,7 +3518,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
+      <c r="A14" s="46"/>
       <c r="B14" s="4" t="s">
         <v>26</v>
       </c>
@@ -3394,7 +3530,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="39" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -3408,31 +3544,31 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="6" t="s">
         <v>31</v>
       </c>
@@ -3444,7 +3580,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="4" t="s">
         <v>30</v>
       </c>
@@ -3456,7 +3592,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="4" t="s">
         <v>33</v>
       </c>
@@ -3468,7 +3604,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="7" t="s">
         <v>36</v>
       </c>
@@ -3494,7 +3630,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="37" t="s">
         <v>47</v>
       </c>
       <c r="B23" s="9" t="s">
@@ -3508,7 +3644,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
+      <c r="A24" s="38"/>
       <c r="B24" s="9" t="s">
         <v>48</v>
       </c>
@@ -3520,7 +3656,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
+      <c r="A25" s="38"/>
       <c r="B25" s="9" t="s">
         <v>46</v>
       </c>
@@ -3532,7 +3668,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="9" t="s">
         <v>54</v>
       </c>
@@ -3544,31 +3680,31 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
+      <c r="A27" s="38"/>
       <c r="B27" s="9" t="s">
         <v>57</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="39"/>
+      <c r="A28" s="38"/>
       <c r="B28" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="39"/>
+      <c r="A29" s="38"/>
       <c r="B29" s="9" t="s">
         <v>60</v>
       </c>
@@ -3580,7 +3716,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="9" t="s">
         <v>61</v>
       </c>
@@ -3592,7 +3728,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
+      <c r="A31" s="38"/>
       <c r="B31" s="12" t="s">
         <v>63</v>
       </c>
@@ -3790,7 +3926,7 @@
         <v>103</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>7</v>

--- a/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/resource/pageobject/Object.xlsx
+++ b/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/resource/pageobject/Object.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henry\git\automation\Desktop\appium\backup\PractitionerPortal_automation\appiumtest\resource\pageobject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AmwayPOC\新建文件夹\temp\appiumtest\resource\pageobject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="236">
   <si>
     <r>
       <rPr>
@@ -823,6 +823,46 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>销售指数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.Button[@content-desc="去支付"]/../preceding-sibling::android.view.View</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>多个验证</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存为常用购货人</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>多笔支付</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>本次支付金额</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>paymentAmount4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>已支付金额</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余应付</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>//android.view.View[contains(@content-desc,"</t>
     </r>
@@ -834,22 +874,26 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>净营业额</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>")]/preceding-sibling::android.view.View</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//android.view.View[@content-desc="</t>
+      <t>订单操作人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>")]</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单操作人</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[contains(@content-desc,"</t>
     </r>
     <r>
       <rPr>
@@ -859,57 +903,21 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>销售指数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>"]/preceding-sibling::android.view.View</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售指数</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.Button[@content-desc="去支付"]/../preceding-sibling::android.view.View</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>多个验证</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存为常用购货人</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>多笔支付</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>本次支付金额</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>paymentAmount4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>已支付金额</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>剩余应付</t>
+      <t>购货渠道</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>")]</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>购货渠道</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -924,7 +932,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>订单操作人</t>
+      <t>订单状态</t>
     </r>
     <r>
       <rPr>
@@ -938,7 +946,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>订单操作人</t>
+    <t>订单状态</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -953,7 +961,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>购货渠道</t>
+      <t>多笔支付</t>
     </r>
     <r>
       <rPr>
@@ -967,7 +975,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>购货渠道</t>
+    <t>付款信息</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -982,26 +990,16 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>订单状态</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>")]</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单状态</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//android.view.View[contains(@content-desc,"</t>
+      <t>购货总额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>")]/following-sibling::android.view.View[contains(@content-desc,"</t>
     </r>
     <r>
       <rPr>
@@ -1011,7 +1009,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>多笔支付</t>
+      <t>扣减悦享分</t>
     </r>
     <r>
       <rPr>
@@ -1025,12 +1023,24 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>付款信息</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//android.view.View[contains(@content-desc,"</t>
+    <t>运费</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>多笔支付</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>多种金额</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.ListView[@resource-id='selectFrequentBuyerList']/android.view.View[1]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.widget.TextView[@content-desc="</t>
     </r>
     <r>
       <rPr>
@@ -1040,16 +1050,66 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>购货总额</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>")]/following-sibling::android.view.View[contains(@content-desc,"</t>
+      <t>搜索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"]</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.mm:id/hx</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.mm:id/l7</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一步</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.mm:id/ak_</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.LinearLayout[@resource-id='com.tencent.mm:id/cb_']/android.widget.EditText</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.mm:id/alk</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>不检查通讯录</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>我知道了1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(//android.widget.Button[@content-desc='</t>
     </r>
     <r>
       <rPr>
@@ -1059,38 +1119,22 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>扣减悦享分</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>")]</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>运费</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>多笔支付</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>多种金额</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.ListView[@resource-id='selectFrequentBuyerList']/android.view.View[1]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//android.widget.TextView[@content-desc="</t>
+      <t>我知道了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'])[2]</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.widget.Button[@content-desc='</t>
     </r>
     <r>
       <rPr>
@@ -1100,66 +1144,38 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>搜索</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>"]</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.tencent.mm:id/hx</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.tencent.mm:id/l7</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>下一步</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.tencent.mm:id/ak_</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.LinearLayout[@resource-id='com.tencent.mm:id/cb_']/android.widget.EditText</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.tencent.mm:id/alk</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>不检查通讯录</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>我知道了1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>(//android.widget.Button[@content-desc='</t>
+      <t>我知道了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>']</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即购买</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即购买</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.RelativeLayout[@resource-id='com.tencent.mm:id/cj0']/android.widget.RelativeLayout</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入购物车</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.widget.Button[@content-desc="</t>
     </r>
     <r>
       <rPr>
@@ -1169,22 +1185,22 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>我知道了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>'])[2]</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//android.widget.Button[@content-desc='</t>
+      <t>搜索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"]/preceding-sibling::android.widget.EditText</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[contains(@content-desc, "</t>
     </r>
     <r>
       <rPr>
@@ -1194,38 +1210,21 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>我知道了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>']</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>立即购买</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>立即购买</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.RelativeLayout[@resource-id='com.tencent.mm:id/cj0']/android.widget.RelativeLayout</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>加入购物车</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//android.widget.Button[@content-desc="</t>
+      <t>购货卡号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>")]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[contains(@content-desc,"</t>
     </r>
     <r>
       <rPr>
@@ -1235,22 +1234,22 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>搜索</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>"]/preceding-sibling::android.widget.EditText</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//android.view.View[contains(@content-desc, "</t>
+      <t>购货总额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>")]</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(//android.view.View[contains(@content-desc,"</t>
     </r>
     <r>
       <rPr>
@@ -1260,21 +1259,16 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>购货卡号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>")]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>//android.view.View[contains(@content-desc,"</t>
+      <t>购货总额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>")]/following-sibling::android.view.View[contains(@content-desc,"</t>
     </r>
     <r>
       <rPr>
@@ -1284,22 +1278,26 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>购货总额</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>")]</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>(//android.view.View[contains(@content-desc,"</t>
+      <t>运费</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>")])[1]</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.mm:id/dr3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[@content-desc="</t>
     </r>
     <r>
       <rPr>
@@ -1309,16 +1307,22 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>购货总额</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>")]/following-sibling::android.view.View[contains(@content-desc,"</t>
+      <t>商品清单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"]/../following-sibling::android.widget.ListView/android.view.View/android.view.View//android.view.View</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[contains(@content-desc,"</t>
     </r>
     <r>
       <rPr>
@@ -1328,21 +1332,45 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>运费</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>")])[1]</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.tencent.mm:id/dr3</t>
+      <t>您已成功支付</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>")]</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.Image[@content-desc="order-fail"]/following-sibling::android.view.View</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.mm:id/cix</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用购货人输入框</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用购货人按钮</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc="选择常用购货人"]/../following-sibling::android.view.View//android.widget.EditText</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>(//android.view.View[@content-desc="确定"])[2]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定常用购货人</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1357,17 +1385,25 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>商品清单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>"]/../following-sibling::android.widget.ListView/android.view.View/android.view.View//android.view.View</t>
-    </r>
+      <t>确定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"]</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定更改常用购货人</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.view.View[contains(@content-desc,"javascript")]</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1382,7 +1418,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>您已成功支付</t>
+      <t>婴儿洗发沐浴露</t>
     </r>
     <r>
       <rPr>
@@ -1396,36 +1432,28 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>//android.widget.Image[@content-desc="order-fail"]/following-sibling::android.view.View</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.tencent.mm:id/cix</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>常用购货人输入框</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>常用购货人按钮</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.view.View[@content-desc="选择常用购货人"]/../following-sibling::android.view.View//android.widget.EditText</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>(//android.view.View[@content-desc="确定"])[2]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定常用购货人</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//android.view.View[@content-desc="</t>
+    <t>quantity_</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录微信</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.mm:id/d1w</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.view.View[contains(@content-desc,"48678350")]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.EditText[@resource-id='qtyInput']/following-sibling::android.widget.Button</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[contains(@content-desc,"</t>
     </r>
     <r>
       <rPr>
@@ -1435,25 +1463,17 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>确定</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>"]</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定更改常用购货人</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.view.View[contains(@content-desc,"javascript")]</t>
+      <t>当前购货人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>")]/following-sibling::android.view.View</t>
+    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1468,7 +1488,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>婴儿洗发沐浴露</t>
+      <t>更改</t>
     </r>
     <r>
       <rPr>
@@ -1482,23 +1502,15 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>quantity_</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录微信</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.tencent.mm:id/d1w</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.view.View[contains(@content-desc,"48678350")]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.EditText[@resource-id='qtyInput']/following-sibling::android.widget.Button</t>
+    <t>查看订单</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>cboxClose</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单详情</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1513,22 +1525,22 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>当前购货人</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>")]/following-sibling::android.view.View</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//android.view.View[contains(@content-desc,"</t>
+      <t>查看订单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>")]</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(//android.view.View[@content-desc="</t>
     </r>
     <r>
       <rPr>
@@ -1538,34 +1550,22 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>更改</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>")]</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看订单</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>cboxClose</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单详情</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//android.view.View[contains(@content-desc,"</t>
+      <t>详情</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"])[1]</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.widget.Button[@content-desc="</t>
     </r>
     <r>
       <rPr>
@@ -1575,22 +1575,16 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>查看订单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>")]</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>(//android.view.View[@content-desc="</t>
+      <t>去支付</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"]/../preceding-sibling::android.view.View[contains(@content-desc,"</t>
     </r>
     <r>
       <rPr>
@@ -1600,22 +1594,22 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>详情</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>"])[1]</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//android.widget.Button[@content-desc="</t>
+      <t>订单金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>")]</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[@content-desc="</t>
     </r>
     <r>
       <rPr>
@@ -1625,16 +1619,22 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>去支付</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>"]/../preceding-sibling::android.view.View[contains(@content-desc,"</t>
+      <t>已支付</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"]/preceding-sibling::android.view.View</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[@content-desc="</t>
     </r>
     <r>
       <rPr>
@@ -1644,22 +1644,30 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>订单金额</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>")]</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//android.view.View[@content-desc="</t>
+      <t>剩余应付金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"]/preceding-sibling::android.view.View</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭订单详情</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次支付</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(//android.widget.Button[@content-desc="</t>
     </r>
     <r>
       <rPr>
@@ -1669,22 +1677,34 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>已支付</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>"]/preceding-sibling::android.view.View</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//android.view.View[@content-desc="</t>
+      <t>再次支付</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"])[1]</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部订单</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付记录</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.view.View[contains(@content-desc,"共有")]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[contains(@content-desc,"</t>
     </r>
     <r>
       <rPr>
@@ -1694,30 +1714,22 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>剩余应付金额</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>"]/preceding-sibling::android.view.View</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭订单详情</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>再次支付</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>(//android.widget.Button[@content-desc="</t>
+      <t>净营业额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>")]/preceding-sibling::android.view.View</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[@content-desc="</t>
     </r>
     <r>
       <rPr>
@@ -1727,29 +1739,46 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>再次支付</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>"])[1]</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>全部订单</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付记录</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.view.View[contains(@content-desc,"共有")]</t>
+      <t>销售指数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"]/preceding-sibling::android.view.View</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>多重验证</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[contains(@content-desc,"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>")]/../android.view.View</t>
+    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2435,10 +2464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV74"/>
+  <dimension ref="A1:IV75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -2475,10 +2504,10 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="30"/>
       <c r="B3" s="27" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -2487,10 +2516,10 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="30"/>
       <c r="B4" s="27" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2499,10 +2528,10 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="30"/>
       <c r="B5" s="27" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2511,10 +2540,10 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="30"/>
       <c r="B6" s="27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>91</v>
@@ -2523,10 +2552,10 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="30"/>
       <c r="B7" s="27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
@@ -2535,10 +2564,10 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="30"/>
       <c r="B8" s="27" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>5</v>
@@ -2552,7 +2581,7 @@
         <v>88</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>91</v>
@@ -2564,7 +2593,7 @@
         <v>90</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>5</v>
@@ -2575,7 +2604,7 @@
         <v>104</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>5</v>
@@ -2610,10 +2639,10 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="21"/>
       <c r="B14" s="27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>91</v>
@@ -2625,7 +2654,7 @@
         <v>94</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>91</v>
@@ -2651,7 +2680,7 @@
         <v>89</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>91</v>
@@ -2663,7 +2692,7 @@
         <v>109</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>91</v>
@@ -2687,7 +2716,7 @@
         <v>139</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>91</v>
@@ -2699,7 +2728,7 @@
         <v>140</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>91</v>
@@ -2708,7 +2737,7 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="27" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C22" s="27" t="s">
         <v>141</v>
@@ -2720,10 +2749,10 @@
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="26"/>
       <c r="B23" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>91</v>
@@ -2732,10 +2761,10 @@
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="26"/>
       <c r="B24" s="27" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>95</v>
@@ -2744,10 +2773,10 @@
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="26"/>
       <c r="B25" s="27" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>91</v>
@@ -2756,10 +2785,10 @@
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="26"/>
       <c r="B26" s="27" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>91</v>
@@ -2771,7 +2800,7 @@
         <v>146</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>91</v>
@@ -2807,7 +2836,7 @@
         <v>144</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>91</v>
@@ -2819,7 +2848,7 @@
         <v>100</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>91</v>
@@ -2845,7 +2874,7 @@
         <v>110</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D33" s="18" t="s">
         <v>111</v>
@@ -2859,7 +2888,7 @@
         <v>45</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>95</v>
@@ -2868,10 +2897,10 @@
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="20"/>
       <c r="B35" s="27" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>95</v>
@@ -2895,7 +2924,7 @@
         <v>112</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>111</v>
@@ -2907,7 +2936,7 @@
         <v>150</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>5</v>
@@ -2928,10 +2957,10 @@
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
       <c r="B40" s="9" t="s">
-        <v>151</v>
+        <v>234</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>152</v>
+        <v>235</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>91</v>
@@ -2940,22 +2969,22 @@
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
       <c r="B41" s="9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>153</v>
+        <v>232</v>
       </c>
       <c r="D41" s="18" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="20"/>
-      <c r="B42" s="27" t="s">
-        <v>69</v>
+      <c r="A42" s="21"/>
+      <c r="B42" s="9" t="s">
+        <v>152</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c r="D42" s="18" t="s">
         <v>91</v>
@@ -2964,10 +2993,10 @@
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="20"/>
       <c r="B43" s="27" t="s">
-        <v>173</v>
+        <v>69</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D43" s="18" t="s">
         <v>91</v>
@@ -2976,48 +3005,48 @@
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="20"/>
       <c r="B44" s="27" t="s">
-        <v>36</v>
+        <v>171</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="D44" s="18" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="21"/>
-      <c r="B45" s="9" t="s">
-        <v>148</v>
+      <c r="A45" s="20"/>
+      <c r="B45" s="27" t="s">
+        <v>36</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="D45" s="18" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="21"/>
+      <c r="B46" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B47" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="27" t="s">
+      <c r="C47" s="27" t="s">
         <v>46</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="20"/>
-      <c r="B47" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>101</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>95</v>
@@ -3026,96 +3055,97 @@
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="20"/>
       <c r="B48" s="9" t="s">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="D48" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="20"/>
+      <c r="B49" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D49" s="18" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="19" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B50" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D49" s="18" t="s">
+      <c r="C50" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D50" s="18" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="21"/>
-      <c r="B50" s="17" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="21"/>
+      <c r="B51" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C51" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="D50" s="18" t="s">
+      <c r="D51" s="18" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="17" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B52" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D51" s="18" t="s">
+      <c r="D52" s="18" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="20"/>
-      <c r="B52" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="20"/>
       <c r="B53" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="20"/>
+      <c r="B54" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C53" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B54" s="24" t="s">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B55" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="C54" s="24" t="s">
+      <c r="C55" s="24" t="s">
         <v>121</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B55" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="C55" s="27" t="s">
-        <v>137</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>95</v>
@@ -3123,21 +3153,21 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B56" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D56" s="18" t="s">
-        <v>91</v>
+        <v>137</v>
+      </c>
+      <c r="C56" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B57" s="27" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D57" s="18" t="s">
         <v>91</v>
@@ -3145,54 +3175,54 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B58" s="27" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>131</v>
+        <v>222</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B59" s="27" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D59" s="18" t="s">
-        <v>91</v>
+        <v>219</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B60" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="C60" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>95</v>
+        <v>227</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D60" s="18" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B61" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D61" s="18" t="s">
-        <v>91</v>
+        <v>229</v>
+      </c>
+      <c r="C61" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B62" s="17" t="s">
-        <v>122</v>
+      <c r="B62" s="27" t="s">
+        <v>230</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>123</v>
+        <v>231</v>
       </c>
       <c r="D62" s="18" t="s">
         <v>91</v>
@@ -3200,32 +3230,32 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B63" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>193</v>
+        <v>123</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B64" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>131</v>
+        <v>191</v>
+      </c>
+      <c r="D64" s="18" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>131</v>
@@ -3233,43 +3263,43 @@
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B66" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D66" s="18" t="s">
-        <v>91</v>
+        <v>197</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B67" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B68" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D67" s="18" t="s">
+      <c r="C68" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D68" s="18" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B68" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D68" s="18" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B69" s="27" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D69" s="18" t="s">
         <v>91</v>
@@ -3277,10 +3307,10 @@
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B70" s="27" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>164</v>
+        <v>225</v>
       </c>
       <c r="D70" s="18" t="s">
         <v>91</v>
@@ -3288,10 +3318,10 @@
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B71" s="27" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D71" s="18" t="s">
         <v>91</v>
@@ -3299,10 +3329,10 @@
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B72" s="27" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D72" s="18" t="s">
         <v>91</v>
@@ -3310,10 +3340,10 @@
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B73" s="27" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D73" s="18" t="s">
         <v>91</v>
@@ -3321,12 +3351,23 @@
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B74" s="27" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="D74" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B75" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D75" s="18" t="s">
         <v>91</v>
       </c>
     </row>

--- a/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/resource/pageobject/Object.xlsx
+++ b/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/resource/pageobject/Object.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AmwayPOC\新建文件夹\temp\appiumtest\resource\pageobject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repo\automation\Desktop\appium\backup\PractitionerPortal_automation\appiumtest\resource\pageobject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,7 @@
   <sheets>
     <sheet name="AndroidObject" sheetId="1" r:id="rId1"/>
     <sheet name="iOSObject" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AndroidObject!#REF!</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="242">
   <si>
     <r>
       <rPr>
@@ -827,10 +828,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>//android.widget.Button[@content-desc="去支付"]/../preceding-sibling::android.view.View</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>多个验证</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1780,12 +1777,33 @@
       <t>")]/../android.view.View</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>(.//*[@resource-id="android:id/tabs"]//android.widget.RelativeLayout)[4]</t>
+  </si>
+  <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>.//android.widget.FrameLayout[1]//android.view.View/android.view.View[1]/android.view.View[4]/android.view.View/android.widget.Image</t>
+  </si>
+  <si>
+    <t>//android.widget.Button[@content-desc="去支付"]/../preceding-sibling::android.view.View</t>
+  </si>
+  <si>
+    <t>.//android.widget.TabHost/android.widget.FrameLayout[1]//android.widget.RelativeLayout//android.view.View/android.view.View[2]/android.app.Dialog/android.view.View/android.view.View[2]/android.view.View[3]/android.view.View[1]</t>
+  </si>
+  <si>
+    <t>openVideo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2186,7 +2204,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2202,7 +2220,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2464,10 +2482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV75"/>
+  <dimension ref="A1:IV78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -2504,10 +2522,10 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="30"/>
       <c r="B3" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -2516,10 +2534,10 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="30"/>
       <c r="B4" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2528,10 +2546,10 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="30"/>
       <c r="B5" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2540,10 +2558,10 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="30"/>
       <c r="B6" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>91</v>
@@ -2552,10 +2570,10 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="30"/>
       <c r="B7" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
@@ -2564,10 +2582,10 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="30"/>
       <c r="B8" s="27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>5</v>
@@ -2581,7 +2599,7 @@
         <v>88</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>91</v>
@@ -2593,7 +2611,7 @@
         <v>90</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>5</v>
@@ -2604,7 +2622,7 @@
         <v>104</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>5</v>
@@ -2639,10 +2657,10 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="21"/>
       <c r="B14" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>91</v>
@@ -2654,7 +2672,7 @@
         <v>94</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>91</v>
@@ -2680,7 +2698,7 @@
         <v>89</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>91</v>
@@ -2692,7 +2710,7 @@
         <v>109</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>91</v>
@@ -2716,7 +2734,7 @@
         <v>139</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>91</v>
@@ -2728,7 +2746,7 @@
         <v>140</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>91</v>
@@ -2737,7 +2755,7 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C22" s="27" t="s">
         <v>141</v>
@@ -2749,10 +2767,10 @@
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="26"/>
       <c r="B23" s="27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>91</v>
@@ -2761,10 +2779,10 @@
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="26"/>
       <c r="B24" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>95</v>
@@ -2773,10 +2791,10 @@
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="26"/>
       <c r="B25" s="27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>91</v>
@@ -2785,10 +2803,10 @@
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="26"/>
       <c r="B26" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>91</v>
@@ -2800,7 +2818,7 @@
         <v>146</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>91</v>
@@ -2836,7 +2854,7 @@
         <v>144</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>91</v>
@@ -2848,7 +2866,7 @@
         <v>100</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>91</v>
@@ -2874,7 +2892,7 @@
         <v>110</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D33" s="18" t="s">
         <v>111</v>
@@ -2888,7 +2906,7 @@
         <v>45</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>95</v>
@@ -2897,10 +2915,10 @@
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="20"/>
       <c r="B35" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>95</v>
@@ -2924,7 +2942,7 @@
         <v>112</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>111</v>
@@ -2936,7 +2954,7 @@
         <v>150</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>5</v>
@@ -2957,10 +2975,10 @@
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
       <c r="B40" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>235</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>91</v>
@@ -2972,7 +2990,7 @@
         <v>151</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D41" s="18" t="s">
         <v>91</v>
@@ -2984,7 +3002,7 @@
         <v>152</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D42" s="18" t="s">
         <v>91</v>
@@ -2996,7 +3014,7 @@
         <v>69</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D43" s="18" t="s">
         <v>91</v>
@@ -3005,10 +3023,10 @@
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="20"/>
       <c r="B44" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D44" s="18" t="s">
         <v>91</v>
@@ -3020,7 +3038,7 @@
         <v>36</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D45" s="18" t="s">
         <v>91</v>
@@ -3067,10 +3085,10 @@
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="20"/>
       <c r="B49" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>153</v>
+        <v>239</v>
       </c>
       <c r="D49" s="18" t="s">
         <v>91</v>
@@ -3084,7 +3102,7 @@
         <v>117</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D50" s="18" t="s">
         <v>108</v>
@@ -3119,10 +3137,10 @@
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="20"/>
       <c r="B53" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>95</v>
@@ -3131,13 +3149,13 @@
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="20"/>
       <c r="B54" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C54" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="D54" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -3164,10 +3182,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B57" s="27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D57" s="18" t="s">
         <v>91</v>
@@ -3175,10 +3193,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B58" s="27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D58" s="18" t="s">
         <v>91</v>
@@ -3186,10 +3204,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B59" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>131</v>
@@ -3197,10 +3215,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B60" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="D60" s="18" t="s">
         <v>91</v>
@@ -3208,10 +3226,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B61" s="27" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C61" s="27" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>95</v>
@@ -3219,10 +3237,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B62" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="D62" s="18" t="s">
         <v>91</v>
@@ -3244,7 +3262,7 @@
         <v>124</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D64" s="18" t="s">
         <v>108</v>
@@ -3255,7 +3273,7 @@
         <v>125</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>131</v>
@@ -3266,7 +3284,7 @@
         <v>126</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>131</v>
@@ -3277,7 +3295,7 @@
         <v>127</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D67" s="18" t="s">
         <v>91</v>
@@ -3288,7 +3306,7 @@
         <v>128</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D68" s="18" t="s">
         <v>111</v>
@@ -3296,10 +3314,10 @@
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B69" s="27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D69" s="18" t="s">
         <v>91</v>
@@ -3307,10 +3325,10 @@
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B70" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D70" s="18" t="s">
         <v>91</v>
@@ -3318,10 +3336,10 @@
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B71" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D71" s="18" t="s">
         <v>91</v>
@@ -3329,10 +3347,10 @@
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B72" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D72" s="18" t="s">
         <v>91</v>
@@ -3340,10 +3358,10 @@
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B73" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D73" s="18" t="s">
         <v>91</v>
@@ -3351,10 +3369,10 @@
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B74" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D74" s="18" t="s">
         <v>91</v>
@@ -3362,13 +3380,46 @@
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B75" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D75" s="18" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B76" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D76" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B77" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D77" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -3986,4 +4037,16 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>